--- a/publication/analyses/outputs/rigid_transformations/df_icp_gdptlab.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/df_icp_gdptlab.xlsx
@@ -529,31 +529,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6668492386248842</v>
+        <v>0.6668492326943835</v>
       </c>
       <c r="F2" t="n">
-        <v>1.494395186571269</v>
+        <v>1.494395191150699</v>
       </c>
       <c r="G2" t="n">
-        <v>1.305547192821678</v>
+        <v>1.305547152535269</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3903527847890018</v>
+        <v>0.3903527302792327</v>
       </c>
       <c r="I2" t="n">
-        <v>-45.36519611602539</v>
+        <v>-45.36521344746593</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7067737993326886</v>
+        <v>0.7067738032624405</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8374054878642546</v>
+        <v>0.8374054939477158</v>
       </c>
       <c r="L2" t="n">
-        <v>1.095799778485255</v>
+        <v>1.095799785668839</v>
       </c>
       <c r="M2" t="n">
-        <v>1.016090458137876</v>
+        <v>1.016090457126086</v>
       </c>
       <c r="N2" t="n">
         <v>28</v>
@@ -579,31 +579,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6895878844392206</v>
+        <v>0.6895878832205175</v>
       </c>
       <c r="F3" t="n">
-        <v>1.369620312631325</v>
+        <v>1.369620314091792</v>
       </c>
       <c r="G3" t="n">
-        <v>1.1165771298094</v>
+        <v>1.116577108430135</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3910720115663935</v>
+        <v>0.3910719667233025</v>
       </c>
       <c r="I3" t="n">
-        <v>-45.87252822129584</v>
+        <v>-45.87254555981212</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7635672828937951</v>
+        <v>0.7635672834626485</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7426349694549067</v>
+        <v>0.7426349731318137</v>
       </c>
       <c r="L3" t="n">
-        <v>1.065148671952936</v>
+        <v>1.065148674924312</v>
       </c>
       <c r="M3" t="n">
-        <v>0.860998320212749</v>
+        <v>0.8609983188600133</v>
       </c>
       <c r="N3" t="n">
         <v>31</v>
@@ -629,31 +629,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8097179613556335</v>
+        <v>0.8097179546539797</v>
       </c>
       <c r="F4" t="n">
-        <v>1.676774759305927</v>
+        <v>1.67677475658589</v>
       </c>
       <c r="G4" t="n">
-        <v>1.099686903160773</v>
+        <v>1.099686903236091</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3837741343475045</v>
+        <v>0.3837740952688478</v>
       </c>
       <c r="I4" t="n">
-        <v>-45.99241657487726</v>
+        <v>-45.99243391425975</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7734164556069557</v>
+        <v>0.7734164524495148</v>
       </c>
       <c r="K4" t="n">
-        <v>0.893775605569232</v>
+        <v>0.8937756102319183</v>
       </c>
       <c r="L4" t="n">
-        <v>1.18195086484772</v>
+        <v>1.181950866307492</v>
       </c>
       <c r="M4" t="n">
-        <v>1.189355180982991</v>
+        <v>1.189355175697605</v>
       </c>
       <c r="N4" t="n">
         <v>32</v>
@@ -679,31 +679,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.007939198580725</v>
+        <v>1.007939198646724</v>
       </c>
       <c r="F5" t="n">
-        <v>1.678964312531157</v>
+        <v>1.678964312563934</v>
       </c>
       <c r="G5" t="n">
-        <v>1.266791466071879</v>
+        <v>1.266791466242807</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2544180938720615</v>
+        <v>0.2544180940436718</v>
       </c>
       <c r="I5" t="n">
-        <v>-41.87341172768984</v>
+        <v>-41.87341162473904</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9468482291411315</v>
+        <v>0.9468482291155219</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8644362137524305</v>
+        <v>0.8644362137335395</v>
       </c>
       <c r="L5" t="n">
-        <v>1.282096539529818</v>
+        <v>1.282096539498168</v>
       </c>
       <c r="M5" t="n">
-        <v>1.084043184600525</v>
+        <v>1.084043184688794</v>
       </c>
       <c r="N5" t="n">
         <v>33</v>
@@ -729,31 +729,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>1.050270813167922</v>
+        <v>1.05027081320261</v>
       </c>
       <c r="F6" t="n">
-        <v>1.93559216683072</v>
+        <v>1.935592166859859</v>
       </c>
       <c r="G6" t="n">
-        <v>1.206096993308165</v>
+        <v>1.206096993537983</v>
       </c>
       <c r="H6" t="n">
-        <v>0.302363580796623</v>
+        <v>0.3023635809664711</v>
       </c>
       <c r="I6" t="n">
-        <v>-41.63894070202419</v>
+        <v>-41.63894059906868</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9791891244135418</v>
+        <v>0.9791891243857933</v>
       </c>
       <c r="K6" t="n">
-        <v>1.082904286297462</v>
+        <v>1.082904286280525</v>
       </c>
       <c r="L6" t="n">
-        <v>1.459963367571657</v>
+        <v>1.459963367540484</v>
       </c>
       <c r="M6" t="n">
-        <v>1.270835945999906</v>
+        <v>1.270835946080044</v>
       </c>
       <c r="N6" t="n">
         <v>31</v>
@@ -779,31 +779,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>1.036219912779216</v>
+        <v>1.036219912847822</v>
       </c>
       <c r="F7" t="n">
-        <v>1.738227412829536</v>
+        <v>1.738227412873351</v>
       </c>
       <c r="G7" t="n">
-        <v>1.163311892970626</v>
+        <v>1.163311893155822</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2277406723968056</v>
+        <v>0.2277406725257265</v>
       </c>
       <c r="I7" t="n">
-        <v>-42.04082730569301</v>
+        <v>-42.04082720271474</v>
       </c>
       <c r="J7" t="n">
-        <v>1.048991064330868</v>
+        <v>1.04899106430589</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8442343931297261</v>
+        <v>0.844234393118082</v>
       </c>
       <c r="L7" t="n">
-        <v>1.346519202829698</v>
+        <v>1.346519202802938</v>
       </c>
       <c r="M7" t="n">
-        <v>1.099236359989364</v>
+        <v>1.09923636009146</v>
       </c>
       <c r="N7" t="n">
         <v>29</v>
@@ -829,31 +829,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>1.303850057869938</v>
+        <v>1.303850057647645</v>
       </c>
       <c r="F8" t="n">
-        <v>2.292039226877616</v>
+        <v>2.292039226828102</v>
       </c>
       <c r="G8" t="n">
-        <v>1.207857414083151</v>
+        <v>1.207857412690601</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6832450527658125</v>
+        <v>0.6832450546444875</v>
       </c>
       <c r="I8" t="n">
-        <v>-37.77043971064782</v>
+        <v>-37.77043733368164</v>
       </c>
       <c r="J8" t="n">
-        <v>1.025002720365711</v>
+        <v>1.025002720559748</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9582151142304822</v>
+        <v>0.9582151140791578</v>
       </c>
       <c r="L8" t="n">
-        <v>1.403141754028026</v>
+        <v>1.40314175406643</v>
       </c>
       <c r="M8" t="n">
-        <v>1.812356762795028</v>
+        <v>1.812356762702725</v>
       </c>
       <c r="N8" t="n">
         <v>21</v>
@@ -879,31 +879,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>1.278103969775278</v>
+        <v>1.278103969179239</v>
       </c>
       <c r="F9" t="n">
-        <v>2.11119109766552</v>
+        <v>2.111191097203831</v>
       </c>
       <c r="G9" t="n">
-        <v>1.287424012820054</v>
+        <v>1.28742401257341</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5030145878956205</v>
+        <v>0.5030145910669717</v>
       </c>
       <c r="I9" t="n">
-        <v>-37.47511862197614</v>
+        <v>-37.47511624468647</v>
       </c>
       <c r="J9" t="n">
-        <v>1.011277939825402</v>
+        <v>1.011277939972427</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8957123149675521</v>
+        <v>0.8957123146505951</v>
       </c>
       <c r="L9" t="n">
-        <v>1.350919547109316</v>
+        <v>1.350919547009222</v>
       </c>
       <c r="M9" t="n">
-        <v>1.62238843317501</v>
+        <v>1.622388432657662</v>
       </c>
       <c r="N9" t="n">
         <v>29</v>
@@ -929,31 +929,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>1.177737666801692</v>
+        <v>1.177737666533429</v>
       </c>
       <c r="F10" t="n">
-        <v>2.247480960960285</v>
+        <v>2.247480960346032</v>
       </c>
       <c r="G10" t="n">
-        <v>1.206587868986219</v>
+        <v>1.206587873265619</v>
       </c>
       <c r="H10" t="n">
-        <v>0.659280062542507</v>
+        <v>0.659280072504373</v>
       </c>
       <c r="I10" t="n">
-        <v>-36.46447558924791</v>
+        <v>-36.46447321221725</v>
       </c>
       <c r="J10" t="n">
-        <v>0.995434873814263</v>
+        <v>0.9954348737243117</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8672444668015916</v>
+        <v>0.867244466047363</v>
       </c>
       <c r="L10" t="n">
-        <v>1.320228598843244</v>
+        <v>1.320228598279977</v>
       </c>
       <c r="M10" t="n">
-        <v>1.818836748219908</v>
+        <v>1.818836747869789</v>
       </c>
       <c r="N10" t="n">
         <v>27</v>
@@ -979,31 +979,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>1.023613219182794</v>
+        <v>1.023613219184077</v>
       </c>
       <c r="F11" t="n">
-        <v>1.500523850196724</v>
+        <v>1.5005238501986</v>
       </c>
       <c r="G11" t="n">
-        <v>1.593261051687989</v>
+        <v>1.593261051680713</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4901128221609952</v>
+        <v>0.4901128221484896</v>
       </c>
       <c r="I11" t="n">
-        <v>-32.06690138053099</v>
+        <v>-32.06690138462915</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5983408829083783</v>
+        <v>0.5983408829086487</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7551781443603814</v>
+        <v>0.7551781443602904</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9634862956364074</v>
+        <v>0.9634862956365041</v>
       </c>
       <c r="M11" t="n">
-        <v>1.150332987934383</v>
+        <v>1.15033298793668</v>
       </c>
       <c r="N11" t="n">
         <v>36</v>
@@ -1029,31 +1029,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>1.022318663942521</v>
+        <v>1.022318663943479</v>
       </c>
       <c r="F12" t="n">
-        <v>1.512234958012574</v>
+        <v>1.512234958014401</v>
       </c>
       <c r="G12" t="n">
-        <v>1.637831611157537</v>
+        <v>1.637831611152762</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4342889453354815</v>
+        <v>0.4342889453233738</v>
       </c>
       <c r="I12" t="n">
-        <v>-32.4015576480645</v>
+        <v>-32.40155765216268</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6063040555519115</v>
+        <v>0.6063040555518773</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8051626401652255</v>
+        <v>0.8051626401654259</v>
       </c>
       <c r="L12" t="n">
-        <v>1.007914423399394</v>
+        <v>1.007914423399533</v>
       </c>
       <c r="M12" t="n">
-        <v>1.127369985115277</v>
+        <v>1.127369985117556</v>
       </c>
       <c r="N12" t="n">
         <v>37</v>
@@ -1079,31 +1079,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>1.060604755403182</v>
+        <v>1.060604755402119</v>
       </c>
       <c r="F13" t="n">
-        <v>1.564918553935556</v>
+        <v>1.564918553934842</v>
       </c>
       <c r="G13" t="n">
-        <v>1.460559660956619</v>
+        <v>1.46055966094417</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5971607930363234</v>
+        <v>0.5971607930183609</v>
       </c>
       <c r="I13" t="n">
-        <v>-31.31713338499605</v>
+        <v>-31.31713338909457</v>
       </c>
       <c r="J13" t="n">
-        <v>0.611116254901453</v>
+        <v>0.6111162549014274</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8318908923446217</v>
+        <v>0.8318908923440909</v>
       </c>
       <c r="L13" t="n">
-        <v>1.03223327488059</v>
+        <v>1.032233274880148</v>
       </c>
       <c r="M13" t="n">
-        <v>1.176207697084597</v>
+        <v>1.176207697084026</v>
       </c>
       <c r="N13" t="n">
         <v>38</v>
@@ -1129,31 +1129,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>1.009953733918727</v>
+        <v>1.009953733919932</v>
       </c>
       <c r="F14" t="n">
-        <v>1.330415252740276</v>
+        <v>1.330415252741077</v>
       </c>
       <c r="G14" t="n">
-        <v>1.537309750091026</v>
+        <v>1.537309750093357</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6502476472418266</v>
+        <v>0.6502476472459193</v>
       </c>
       <c r="I14" t="n">
-        <v>-28.2689143815756</v>
+        <v>-28.26891437979892</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7451199831565217</v>
+        <v>0.7451199831564476</v>
       </c>
       <c r="K14" t="n">
-        <v>0.72115249364039</v>
+        <v>0.7211524936402145</v>
       </c>
       <c r="L14" t="n">
-        <v>1.036949713526615</v>
+        <v>1.036949713526439</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8335106696023856</v>
+        <v>0.8335106696040141</v>
       </c>
       <c r="N14" t="n">
         <v>64</v>
@@ -1179,31 +1179,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>1.02324394474906</v>
+        <v>1.023243944749298</v>
       </c>
       <c r="F15" t="n">
-        <v>1.324312556484726</v>
+        <v>1.324312556484651</v>
       </c>
       <c r="G15" t="n">
-        <v>1.594684316086784</v>
+        <v>1.594684316091332</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6762711836194057</v>
+        <v>0.6762711836245785</v>
       </c>
       <c r="I15" t="n">
-        <v>-27.79806695262527</v>
+        <v>-27.7980669508489</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7043534828650014</v>
+        <v>0.704353482864874</v>
       </c>
       <c r="K15" t="n">
-        <v>0.691547356054934</v>
+        <v>0.6915473560546698</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9870924852771535</v>
+        <v>0.9870924852768773</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8828658860622591</v>
+        <v>0.8828658860623889</v>
       </c>
       <c r="N15" t="n">
         <v>64</v>
@@ -1229,31 +1229,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9968929823829573</v>
+        <v>0.9968929823841084</v>
       </c>
       <c r="F16" t="n">
-        <v>1.316816591870998</v>
+        <v>1.316816591871864</v>
       </c>
       <c r="G16" t="n">
-        <v>1.552167468547566</v>
+        <v>1.55216746855001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6246942060354854</v>
+        <v>0.6246942060401466</v>
       </c>
       <c r="I16" t="n">
-        <v>-28.19517099762967</v>
+        <v>-28.19517099585297</v>
       </c>
       <c r="J16" t="n">
-        <v>0.716123129794181</v>
+        <v>0.7161231297940728</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7210034916032813</v>
+        <v>0.7210034916030736</v>
       </c>
       <c r="L16" t="n">
-        <v>1.016207838943558</v>
+        <v>1.016207838943334</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8374530223818569</v>
+        <v>0.8374530223834551</v>
       </c>
       <c r="N16" t="n">
         <v>61</v>
@@ -1279,31 +1279,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6771882811328831</v>
+        <v>0.6771882811013864</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9378209103115939</v>
+        <v>0.9378209102741479</v>
       </c>
       <c r="G17" t="n">
-        <v>1.704342035943512</v>
+        <v>1.704342036372793</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9729574632685285</v>
+        <v>0.9729574638364511</v>
       </c>
       <c r="I17" t="n">
-        <v>-22.16605313167915</v>
+        <v>-22.16605296803751</v>
       </c>
       <c r="J17" t="n">
-        <v>0.410176786957407</v>
+        <v>0.4101767869768445</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6049455963402244</v>
+        <v>0.604945596317267</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7308927220120145</v>
+        <v>0.7308927220039213</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5876256365472383</v>
+        <v>0.5876256364975203</v>
       </c>
       <c r="N17" t="n">
         <v>70</v>
@@ -1329,31 +1329,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.71649559286442</v>
+        <v>0.7164955928429255</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9795830859921394</v>
+        <v>0.9795830859650498</v>
       </c>
       <c r="G18" t="n">
-        <v>1.773218608518164</v>
+        <v>1.773218608983825</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9044568931203116</v>
+        <v>0.9044568937247277</v>
       </c>
       <c r="I18" t="n">
-        <v>-22.0114433396936</v>
+        <v>-22.01144317605718</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4492291166553279</v>
+        <v>0.4492291166802159</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6046116076551697</v>
+        <v>0.6046116076334879</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7532343562015047</v>
+        <v>0.7532343561989441</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6262755200385776</v>
+        <v>0.6262755199992834</v>
       </c>
       <c r="N18" t="n">
         <v>71</v>
@@ -1379,31 +1379,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6679152389515705</v>
+        <v>0.66791523891478</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9344116201734094</v>
+        <v>0.9344116201317705</v>
       </c>
       <c r="G19" t="n">
-        <v>1.66784575514265</v>
+        <v>1.667845755577673</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9627552130720574</v>
+        <v>0.9627552136544182</v>
       </c>
       <c r="I19" t="n">
-        <v>-22.09837798115063</v>
+        <v>-22.09837781749347</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4078024885184282</v>
+        <v>0.4078024885394654</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5938694535622981</v>
+        <v>0.5938694535374638</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7204053008662592</v>
+        <v>0.7204053008576955</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5950977049181858</v>
+        <v>0.5950977048631563</v>
       </c>
       <c r="N19" t="n">
         <v>71</v>
@@ -1429,31 +1429,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5931708539777771</v>
+        <v>0.5931708539786256</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7877639538453608</v>
+        <v>0.7877639538461509</v>
       </c>
       <c r="G20" t="n">
-        <v>1.852900163260188</v>
+        <v>1.852900163255299</v>
       </c>
       <c r="H20" t="n">
-        <v>1.058624235190734</v>
+        <v>1.058624235181014</v>
       </c>
       <c r="I20" t="n">
-        <v>-17.38950197232366</v>
+        <v>-17.38950197449071</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3904479359493718</v>
+        <v>0.3904479359490851</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5284550365631193</v>
+        <v>0.528455036563047</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6570497061532351</v>
+        <v>0.6570497061530065</v>
       </c>
       <c r="M20" t="n">
-        <v>0.434577646252103</v>
+        <v>0.4345776462538883</v>
       </c>
       <c r="N20" t="n">
         <v>72</v>
@@ -1479,31 +1479,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6175430627737675</v>
+        <v>0.6175430627746152</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8173933348466902</v>
+        <v>0.8173933348475974</v>
       </c>
       <c r="G21" t="n">
-        <v>1.835149980966207</v>
+        <v>1.835149980961603</v>
       </c>
       <c r="H21" t="n">
-        <v>1.007208916325794</v>
+        <v>1.00720891631596</v>
       </c>
       <c r="I21" t="n">
-        <v>-17.49233194308734</v>
+        <v>-17.49233194525467</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4043205758120185</v>
+        <v>0.4043205758117782</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5368615814091002</v>
+        <v>0.5368615814091399</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6720829454896489</v>
+        <v>0.6720829454895358</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4652272329021094</v>
+        <v>0.4652272329038453</v>
       </c>
       <c r="N21" t="n">
         <v>71</v>
@@ -1529,31 +1529,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.608261971620454</v>
+        <v>0.6082619716212896</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8064998893313055</v>
+        <v>0.8064998893322166</v>
       </c>
       <c r="G22" t="n">
-        <v>1.864182770092782</v>
+        <v>1.864182770087666</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9878606052669738</v>
+        <v>0.9878606052567989</v>
       </c>
       <c r="I22" t="n">
-        <v>-17.35413232573058</v>
+        <v>-17.35413232789785</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3911188661250898</v>
+        <v>0.3911188661247775</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5252741199213014</v>
+        <v>0.5252741199213405</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6548945476166934</v>
+        <v>0.6548945476165384</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4706965083717345</v>
+        <v>0.4706965083735085</v>
       </c>
       <c r="N22" t="n">
         <v>72</v>
@@ -1579,31 +1579,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6777898630745189</v>
+        <v>0.6777898628136261</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8699024303553264</v>
+        <v>0.8699024301347121</v>
       </c>
       <c r="G23" t="n">
-        <v>1.87488019934267</v>
+        <v>1.874880200069356</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9167959239314314</v>
+        <v>0.9167959256798781</v>
       </c>
       <c r="I23" t="n">
-        <v>-12.63917287344893</v>
+        <v>-12.63917251587541</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3974085175287556</v>
+        <v>0.3974085175433902</v>
       </c>
       <c r="K23" t="n">
-        <v>0.531197961399334</v>
+        <v>0.5311979614656738</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6634039523542287</v>
+        <v>0.6634039524161146</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5626947967938674</v>
+        <v>0.5626947963798794</v>
       </c>
       <c r="N23" t="n">
         <v>69</v>
@@ -1629,31 +1629,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7095001323775653</v>
+        <v>0.7095001320866702</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9064075409594667</v>
+        <v>0.9064075407060438</v>
       </c>
       <c r="G24" t="n">
-        <v>1.898804899197444</v>
+        <v>1.898804899978188</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9235706129102255</v>
+        <v>0.9235706147385372</v>
       </c>
       <c r="I24" t="n">
-        <v>-12.5290922126633</v>
+        <v>-12.52909185511206</v>
       </c>
       <c r="J24" t="n">
-        <v>0.403333489629877</v>
+        <v>0.4033334896436931</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5462918495052603</v>
+        <v>0.546291849542087</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6790527878544437</v>
+        <v>0.6790527878922766</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6003848279356238</v>
+        <v>0.6003848275102414</v>
       </c>
       <c r="N24" t="n">
         <v>67</v>
@@ -1679,31 +1679,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6879196661239044</v>
+        <v>0.687919665865655</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8823043326490648</v>
+        <v>0.8823043324303089</v>
       </c>
       <c r="G25" t="n">
-        <v>1.895182962051251</v>
+        <v>1.895182962734339</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9224053401144943</v>
+        <v>0.9224053418703875</v>
       </c>
       <c r="I25" t="n">
-        <v>-12.63270186130986</v>
+        <v>-12.63270150375452</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3781241891986906</v>
+        <v>0.3781241892029715</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5301727004844977</v>
+        <v>0.5301727005459447</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6511996581665196</v>
+        <v>0.6511996582190323</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5953149927686072</v>
+        <v>0.5953149923869718</v>
       </c>
       <c r="N25" t="n">
         <v>69</v>
@@ -1729,31 +1729,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E26" t="n">
-        <v>0.39807680404373</v>
+        <v>0.3980768035148305</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7842255689582358</v>
+        <v>0.7842255688982961</v>
       </c>
       <c r="G26" t="n">
-        <v>1.846178632167778</v>
+        <v>1.846178633995805</v>
       </c>
       <c r="H26" t="n">
-        <v>1.155401577262182</v>
+        <v>1.155401585769823</v>
       </c>
       <c r="I26" t="n">
-        <v>-6.388917610814262</v>
+        <v>-6.388916552310753</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2298100915663951</v>
+        <v>0.2298100914953202</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2736308374711564</v>
+        <v>0.2736308375969421</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3573324969841413</v>
+        <v>0.3573324970347526</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6980854028032255</v>
+        <v>0.6980854027099572</v>
       </c>
       <c r="N26" t="n">
         <v>57</v>
@@ -1779,31 +1779,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3857264818436436</v>
+        <v>0.385726481320691</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7824698692556589</v>
+        <v>0.782469869164146</v>
       </c>
       <c r="G27" t="n">
-        <v>1.834143487843278</v>
+        <v>1.834143489470989</v>
       </c>
       <c r="H27" t="n">
-        <v>1.170499462763132</v>
+        <v>1.170499471456878</v>
       </c>
       <c r="I27" t="n">
-        <v>-6.42603972264955</v>
+        <v>-6.426038664159156</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2500358695826991</v>
+        <v>0.2500358695145256</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2864985184595878</v>
+        <v>0.2864985186357805</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3802621952778311</v>
+        <v>0.3802621953657522</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6838565340299553</v>
+        <v>0.6838565338763425</v>
       </c>
       <c r="N27" t="n">
         <v>56</v>
@@ -1829,31 +1829,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4053313180580285</v>
+        <v>0.4053313175276285</v>
       </c>
       <c r="F28" t="n">
-        <v>0.798604626711463</v>
+        <v>0.7986046266406134</v>
       </c>
       <c r="G28" t="n">
-        <v>1.847830201828799</v>
+        <v>1.847830203649721</v>
       </c>
       <c r="H28" t="n">
-        <v>1.151813402987216</v>
+        <v>1.151813411439718</v>
       </c>
       <c r="I28" t="n">
-        <v>-6.355613672144445</v>
+        <v>-6.355612613635961</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2309656396563455</v>
+        <v>0.2309656395954345</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2780831814942782</v>
+        <v>0.2780831816080233</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3614905013023779</v>
+        <v>0.3614905013509608</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7121053063087762</v>
+        <v>0.7121053062046591</v>
       </c>
       <c r="N28" t="n">
         <v>57</v>
@@ -1879,31 +1879,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E29" t="n">
-        <v>1.349545837167135</v>
+        <v>1.34954583716747</v>
       </c>
       <c r="F29" t="n">
-        <v>2.29148162730224</v>
+        <v>2.291481627302676</v>
       </c>
       <c r="G29" t="n">
-        <v>1.88962621041037</v>
+        <v>1.889626210420943</v>
       </c>
       <c r="H29" t="n">
-        <v>1.115576813421569</v>
+        <v>1.115576813409916</v>
       </c>
       <c r="I29" t="n">
-        <v>-2.38196271477124</v>
+        <v>-2.381962718686571</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2269481411352442</v>
+        <v>0.2269481411354064</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2594098635305165</v>
+        <v>0.2594098635305951</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3446722153897293</v>
+        <v>0.3446722153898952</v>
       </c>
       <c r="M29" t="n">
-        <v>2.265411466423278</v>
+        <v>2.265411466423691</v>
       </c>
       <c r="N29" t="n">
         <v>64</v>
@@ -1929,31 +1929,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E30" t="n">
-        <v>1.319155189225311</v>
+        <v>1.31915518922591</v>
       </c>
       <c r="F30" t="n">
-        <v>2.268595023581069</v>
+        <v>2.268595023581681</v>
       </c>
       <c r="G30" t="n">
-        <v>1.907007464782794</v>
+        <v>1.907007464790979</v>
       </c>
       <c r="H30" t="n">
-        <v>1.091428916332688</v>
+        <v>1.09142891631808</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.031318176513999</v>
+        <v>-2.031318180429431</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2683054451201934</v>
+        <v>0.2683054451203297</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3131573641015931</v>
+        <v>0.3131573641019584</v>
       </c>
       <c r="L30" t="n">
-        <v>0.4123776746772344</v>
+        <v>0.4123776746776003</v>
       </c>
       <c r="M30" t="n">
-        <v>2.230799864273932</v>
+        <v>2.230799864274484</v>
       </c>
       <c r="N30" t="n">
         <v>65</v>
@@ -1979,31 +1979,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E31" t="n">
-        <v>1.299750163981213</v>
+        <v>1.299750163982161</v>
       </c>
       <c r="F31" t="n">
-        <v>2.239854470835849</v>
+        <v>2.239854470836692</v>
       </c>
       <c r="G31" t="n">
-        <v>1.936237949951249</v>
+        <v>1.936237949959036</v>
       </c>
       <c r="H31" t="n">
-        <v>1.09621089629735</v>
+        <v>1.096210896281889</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.947818581035983</v>
+        <v>-1.947818584951188</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2399720641687246</v>
+        <v>0.2399720641687592</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3040122638682585</v>
+        <v>0.3040122638692311</v>
       </c>
       <c r="L31" t="n">
-        <v>0.387311306527065</v>
+        <v>0.3873113065278498</v>
       </c>
       <c r="M31" t="n">
-        <v>2.206113778199039</v>
+        <v>2.206113778199758</v>
       </c>
       <c r="N31" t="n">
         <v>64</v>
@@ -2029,31 +2029,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8166273748681815</v>
+        <v>0.8166273748376932</v>
       </c>
       <c r="F32" t="n">
-        <v>1.217022578020842</v>
+        <v>1.217022577987549</v>
       </c>
       <c r="G32" t="n">
-        <v>1.887208768006644</v>
+        <v>1.887208768232711</v>
       </c>
       <c r="H32" t="n">
-        <v>1.200559400858197</v>
+        <v>1.200559401256101</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.307076690061957</v>
+        <v>-1.307076890244016</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2427173208513491</v>
+        <v>0.242717320850837</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2597322781530758</v>
+        <v>0.2597322781417116</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3554891758631245</v>
+        <v>0.3554891758544718</v>
       </c>
       <c r="M32" t="n">
-        <v>1.163946476972484</v>
+        <v>1.163946476940312</v>
       </c>
       <c r="N32" t="n">
         <v>64</v>
@@ -2079,31 +2079,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8119640033396011</v>
+        <v>0.8119640033120981</v>
       </c>
       <c r="F33" t="n">
-        <v>1.19653871664943</v>
+        <v>1.196538716606371</v>
       </c>
       <c r="G33" t="n">
-        <v>1.852923644295117</v>
+        <v>1.85292364448901</v>
       </c>
       <c r="H33" t="n">
-        <v>1.219020117926334</v>
+        <v>1.219020118269839</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.204770519133773</v>
+        <v>-1.204770719323314</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2407035864766298</v>
+        <v>0.2407035864676621</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2413114374539459</v>
+        <v>0.2413114374267932</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3408363630670913</v>
+        <v>0.3408363630415341</v>
       </c>
       <c r="M33" t="n">
-        <v>1.146967948136412</v>
+        <v>1.146967948099096</v>
       </c>
       <c r="N33" t="n">
         <v>64</v>
@@ -2129,31 +2129,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7982421817720212</v>
+        <v>0.7982421817412753</v>
       </c>
       <c r="F34" t="n">
-        <v>1.20348515101806</v>
+        <v>1.203485150985717</v>
       </c>
       <c r="G34" t="n">
-        <v>1.910540752500594</v>
+        <v>1.910540752720181</v>
       </c>
       <c r="H34" t="n">
-        <v>1.186237920173141</v>
+        <v>1.186237920561155</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.267747781965664</v>
+        <v>-1.267747982143425</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2419282744463322</v>
+        <v>0.2419282744459102</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2625431843612414</v>
+        <v>0.262543184352483</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3570129040120547</v>
+        <v>0.357012904005328</v>
       </c>
       <c r="M34" t="n">
-        <v>1.149312096468947</v>
+        <v>1.149312096437165</v>
       </c>
       <c r="N34" t="n">
         <v>64</v>
@@ -2179,31 +2179,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3888575193124965</v>
+        <v>0.3888575196065704</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7866661803325283</v>
+        <v>0.7866661807144801</v>
       </c>
       <c r="G35" t="n">
-        <v>1.762675456591637</v>
+        <v>1.762675450728466</v>
       </c>
       <c r="H35" t="n">
-        <v>1.189190632923044</v>
+        <v>1.189190633527289</v>
       </c>
       <c r="I35" t="n">
-        <v>2.63232339599687</v>
+        <v>2.632324409453576</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2502567712207876</v>
+        <v>0.2502567714748116</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2633783509030327</v>
+        <v>0.2633783510088815</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3633133733655488</v>
+        <v>0.3633133736172585</v>
       </c>
       <c r="M35" t="n">
-        <v>0.697744274080897</v>
+        <v>0.6977442743804889</v>
       </c>
       <c r="N35" t="n">
         <v>17</v>
@@ -2229,31 +2229,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4004554994988196</v>
+        <v>0.4004554997360927</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8196472172513372</v>
+        <v>0.8196472176767972</v>
       </c>
       <c r="G36" t="n">
-        <v>1.709573945884642</v>
+        <v>1.709573941305564</v>
       </c>
       <c r="H36" t="n">
-        <v>1.074241654601451</v>
+        <v>1.074241656440336</v>
       </c>
       <c r="I36" t="n">
-        <v>3.179127173781656</v>
+        <v>3.17912818755774</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2628826192934927</v>
+        <v>0.2628826194255127</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2412635024269192</v>
+        <v>0.2412635025965573</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3568127648079752</v>
+        <v>0.3568127650199442</v>
       </c>
       <c r="M36" t="n">
-        <v>0.7379066415326182</v>
+        <v>0.7379066419027395</v>
       </c>
       <c r="N36" t="n">
         <v>13</v>
@@ -2279,31 +2279,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3862077409860817</v>
+        <v>0.3862077411450258</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8478741739321017</v>
+        <v>0.8478741743586817</v>
       </c>
       <c r="G37" t="n">
-        <v>1.719163165959287</v>
+        <v>1.719163160093217</v>
       </c>
       <c r="H37" t="n">
-        <v>1.144832614105212</v>
+        <v>1.144832614382096</v>
       </c>
       <c r="I37" t="n">
-        <v>2.667833316130261</v>
+        <v>2.667834329759263</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2699026726771892</v>
+        <v>0.2699026729353335</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2602053113248818</v>
+        <v>0.2602053114757377</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3749056638142036</v>
+        <v>0.3749056641047495</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7604842917911319</v>
+        <v>0.7604842921235219</v>
       </c>
       <c r="N37" t="n">
         <v>13</v>
@@ -2329,31 +2329,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2534436404490516</v>
+        <v>0.2534436404489257</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4976056015518628</v>
+        <v>0.4976056015523544</v>
       </c>
       <c r="G38" t="n">
-        <v>1.873718192142519</v>
+        <v>1.873718192145361</v>
       </c>
       <c r="H38" t="n">
-        <v>1.187040343972228</v>
+        <v>1.187040343978879</v>
       </c>
       <c r="I38" t="n">
-        <v>11.42655792602273</v>
+        <v>11.42655792747474</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1328963439340078</v>
+        <v>0.1328963439345032</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1729448378915552</v>
+        <v>0.172944837893076</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2181085857648947</v>
+        <v>0.2181085857664024</v>
       </c>
       <c r="M38" t="n">
-        <v>0.4472582917190692</v>
+        <v>0.4472582917188661</v>
       </c>
       <c r="N38" t="n">
         <v>9</v>
@@ -2379,31 +2379,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2297118757914718</v>
+        <v>0.2297118757911471</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4964359826509947</v>
+        <v>0.4964359826513648</v>
       </c>
       <c r="G39" t="n">
-        <v>1.858998941667721</v>
+        <v>1.858998941669768</v>
       </c>
       <c r="H39" t="n">
-        <v>1.077396481554558</v>
+        <v>1.077396481558083</v>
       </c>
       <c r="I39" t="n">
-        <v>10.93582044057453</v>
+        <v>10.93582044202687</v>
       </c>
       <c r="J39" t="n">
-        <v>0.145731134607501</v>
+        <v>0.1457311346080318</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1751691776700781</v>
+        <v>0.1751691776712206</v>
       </c>
       <c r="L39" t="n">
-        <v>0.2278635653183742</v>
+        <v>0.227863565319592</v>
       </c>
       <c r="M39" t="n">
-        <v>0.4410520156070959</v>
+        <v>0.4410520156069369</v>
       </c>
       <c r="N39" t="n">
         <v>9</v>
@@ -2429,31 +2429,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.251969835749821</v>
+        <v>0.2519698357497224</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5060260963614194</v>
+        <v>0.5060260963617903</v>
       </c>
       <c r="G40" t="n">
-        <v>1.815466188211701</v>
+        <v>1.815466188213691</v>
       </c>
       <c r="H40" t="n">
-        <v>1.144466126226064</v>
+        <v>1.144466126229361</v>
       </c>
       <c r="I40" t="n">
-        <v>10.99828878898156</v>
+        <v>10.99828879043387</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1587065737308288</v>
+        <v>0.1587065737313323</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1427494730049055</v>
+        <v>0.1427494730058574</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2134600397933001</v>
+        <v>0.213460039794311</v>
       </c>
       <c r="M40" t="n">
-        <v>0.458799761998932</v>
+        <v>0.4587997619988131</v>
       </c>
       <c r="N40" t="n">
         <v>8</v>
@@ -2479,31 +2479,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2170649607197281</v>
+        <v>0.217064963330302</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6333133106008275</v>
+        <v>0.6333133097537785</v>
       </c>
       <c r="G41" t="n">
-        <v>1.697829024775274</v>
+        <v>1.697829059432252</v>
       </c>
       <c r="H41" t="n">
-        <v>1.185743583075009</v>
+        <v>1.185743563641779</v>
       </c>
       <c r="I41" t="n">
-        <v>14.38859145334672</v>
+        <v>14.38857409223964</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2258127910347041</v>
+        <v>0.2258127969191715</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2257634944243321</v>
+        <v>0.2257634851870409</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3193126555737626</v>
+        <v>0.3193126532041256</v>
       </c>
       <c r="M41" t="n">
-        <v>0.5469233743172742</v>
+        <v>0.5469233747199121</v>
       </c>
       <c r="N41" t="n">
         <v>12</v>
@@ -2529,31 +2529,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.157486523871172</v>
+        <v>0.1574865226660605</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5858938486585057</v>
+        <v>0.5858938508131257</v>
       </c>
       <c r="G42" t="n">
-        <v>1.659093618320753</v>
+        <v>1.659093667529476</v>
       </c>
       <c r="H42" t="n">
-        <v>1.14187960087628</v>
+        <v>1.141879590193923</v>
       </c>
       <c r="I42" t="n">
-        <v>13.84726392607798</v>
+        <v>13.84724656226506</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2280185065705402</v>
+        <v>0.2280185175551913</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2750013318420521</v>
+        <v>0.2750013244845515</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3572368567961066</v>
+        <v>0.3572368581436198</v>
       </c>
       <c r="M42" t="n">
-        <v>0.4643850019566981</v>
+        <v>0.4643850036385183</v>
       </c>
       <c r="N42" t="n">
         <v>11</v>
@@ -2579,31 +2579,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2029444684776328</v>
+        <v>0.2029444664742089</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6623332154040631</v>
+        <v>0.6623332167781357</v>
       </c>
       <c r="G43" t="n">
-        <v>1.666226264117313</v>
+        <v>1.666226312614867</v>
       </c>
       <c r="H43" t="n">
-        <v>1.15620310607909</v>
+        <v>1.156203098726053</v>
       </c>
       <c r="I43" t="n">
-        <v>14.02469852172266</v>
+        <v>14.02468115857468</v>
       </c>
       <c r="J43" t="n">
-        <v>0.169563203828595</v>
+        <v>0.1695632167739568</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2273743738359804</v>
+        <v>0.2273743683535754</v>
       </c>
       <c r="L43" t="n">
-        <v>0.2836384775906151</v>
+        <v>0.283638480934656</v>
       </c>
       <c r="M43" t="n">
-        <v>0.598526943635427</v>
+        <v>0.5985269435713017</v>
       </c>
       <c r="N43" t="n">
         <v>13</v>
@@ -2629,31 +2629,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2387246397237495</v>
+        <v>0.2387246397241107</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5576561956895332</v>
+        <v>0.557656195690127</v>
       </c>
       <c r="G44" t="n">
-        <v>1.917695654055819</v>
+        <v>1.9176956540486</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5981134036157414</v>
+        <v>0.5981134036148887</v>
       </c>
       <c r="I44" t="n">
-        <v>25.48520678005773</v>
+        <v>25.48520678209571</v>
       </c>
       <c r="J44" t="n">
-        <v>0.09823887948283813</v>
+        <v>0.09823887948310744</v>
       </c>
       <c r="K44" t="n">
-        <v>0.349587637729354</v>
+        <v>0.3495876377294934</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3631286189427014</v>
+        <v>0.3631286189429085</v>
       </c>
       <c r="M44" t="n">
-        <v>0.423223391007278</v>
+        <v>0.4232233910078738</v>
       </c>
       <c r="N44" t="n">
         <v>7</v>
@@ -2679,31 +2679,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2481144218897015</v>
+        <v>0.2481144218902426</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5315657121440424</v>
+        <v>0.5315657121444488</v>
       </c>
       <c r="G45" t="n">
-        <v>1.467446431414658</v>
+        <v>1.467446431410451</v>
       </c>
       <c r="H45" t="n">
-        <v>1.223945210816851</v>
+        <v>1.223945210822308</v>
       </c>
       <c r="I45" t="n">
-        <v>26.48229291144979</v>
+        <v>26.48229291348754</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2326614565484589</v>
+        <v>0.2326614565480853</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3994289431286871</v>
+        <v>0.3994289431292353</v>
       </c>
       <c r="L45" t="n">
-        <v>0.4622497528091825</v>
+        <v>0.4622497528094682</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2624638496156951</v>
+        <v>0.2624638496159317</v>
       </c>
       <c r="N45" t="n">
         <v>10</v>
@@ -2729,31 +2729,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3484561984942033</v>
+        <v>0.3484561984944139</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6277865715508032</v>
+        <v>0.6277865715511768</v>
       </c>
       <c r="G46" t="n">
-        <v>1.789832773531487</v>
+        <v>1.789832773526825</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8203030048007918</v>
+        <v>0.8203030048012465</v>
       </c>
       <c r="I46" t="n">
-        <v>25.89895663529004</v>
+        <v>25.89895663732781</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1690280070983321</v>
+        <v>0.1690280070980753</v>
       </c>
       <c r="K46" t="n">
-        <v>0.3852924534362357</v>
+        <v>0.3852924534363148</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4207383294383193</v>
+        <v>0.4207383294382885</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4659347996886463</v>
+        <v>0.4659347996892668</v>
       </c>
       <c r="N46" t="n">
         <v>9</v>
@@ -2779,31 +2779,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3924972357305624</v>
+        <v>0.3924972357305452</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8070487922190214</v>
+        <v>0.8070487922188015</v>
       </c>
       <c r="G47" t="n">
-        <v>1.422792908905592</v>
+        <v>1.422792908903205</v>
       </c>
       <c r="H47" t="n">
-        <v>1.168252587456777</v>
+        <v>1.168252587462291</v>
       </c>
       <c r="I47" t="n">
-        <v>30.74030915496098</v>
+        <v>30.74030915722762</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2842373702799233</v>
+        <v>0.2842373702804105</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3664260536528471</v>
+        <v>0.3664260536529656</v>
       </c>
       <c r="L47" t="n">
-        <v>0.4637444721603109</v>
+        <v>0.4637444721607031</v>
       </c>
       <c r="M47" t="n">
-        <v>0.660506485632757</v>
+        <v>0.6605064856321801</v>
       </c>
       <c r="N47" t="n">
         <v>46</v>
@@ -2829,31 +2829,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5662311722398757</v>
+        <v>0.5662311722395929</v>
       </c>
       <c r="F48" t="n">
-        <v>1.039178479723638</v>
+        <v>1.039178479722992</v>
       </c>
       <c r="G48" t="n">
-        <v>1.438534759207243</v>
+        <v>1.438534759205766</v>
       </c>
       <c r="H48" t="n">
-        <v>1.158542872568148</v>
+        <v>1.158542872572127</v>
       </c>
       <c r="I48" t="n">
-        <v>30.59333842821477</v>
+        <v>30.59333843048138</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2694413307632056</v>
+        <v>0.2694413307633192</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4936400359247832</v>
+        <v>0.4936400359248239</v>
       </c>
       <c r="L48" t="n">
-        <v>0.5623869804603129</v>
+        <v>0.562386980460403</v>
       </c>
       <c r="M48" t="n">
-        <v>0.8738494131882635</v>
+        <v>0.8738494131874289</v>
       </c>
       <c r="N48" t="n">
         <v>43</v>
@@ -2879,31 +2879,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3911261881971781</v>
+        <v>0.3911261881974746</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8071945235220024</v>
+        <v>0.807194523522116</v>
       </c>
       <c r="G49" t="n">
-        <v>1.448905207933706</v>
+        <v>1.44890520793183</v>
       </c>
       <c r="H49" t="n">
-        <v>1.09789679280226</v>
+        <v>1.097896792807489</v>
       </c>
       <c r="I49" t="n">
-        <v>30.7764434576229</v>
+        <v>30.77644345988969</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2718112223620391</v>
+        <v>0.2718112223624615</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3608666248634554</v>
+        <v>0.3608666248636564</v>
       </c>
       <c r="L49" t="n">
-        <v>0.4517809884692889</v>
+        <v>0.4517809884697035</v>
       </c>
       <c r="M49" t="n">
-        <v>0.668922220636802</v>
+        <v>0.6689222206366443</v>
       </c>
       <c r="N49" t="n">
         <v>44</v>
@@ -2929,31 +2929,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5693194632638777</v>
+        <v>0.5693194629582312</v>
       </c>
       <c r="F50" t="n">
-        <v>1.194550747341217</v>
+        <v>1.194550746798121</v>
       </c>
       <c r="G50" t="n">
-        <v>1.426290225916944</v>
+        <v>1.426290226509593</v>
       </c>
       <c r="H50" t="n">
-        <v>1.130965167970317</v>
+        <v>1.13096517432848</v>
       </c>
       <c r="I50" t="n">
-        <v>35.86299685637381</v>
+        <v>35.86299914853024</v>
       </c>
       <c r="J50" t="n">
-        <v>0.4620314850301421</v>
+        <v>0.4620314852882063</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5070277862279478</v>
+        <v>0.5070277864655234</v>
       </c>
       <c r="L50" t="n">
-        <v>0.6859666676788108</v>
+        <v>0.6859666680282317</v>
       </c>
       <c r="M50" t="n">
-        <v>0.9779576774109743</v>
+        <v>0.9779576765025201</v>
       </c>
       <c r="N50" t="n">
         <v>43</v>
@@ -2979,31 +2979,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.524391472573262</v>
+        <v>0.5243914728686805</v>
       </c>
       <c r="F51" t="n">
-        <v>1.124649117458066</v>
+        <v>1.124649117432475</v>
       </c>
       <c r="G51" t="n">
-        <v>1.50168542281699</v>
+        <v>1.501685422939772</v>
       </c>
       <c r="H51" t="n">
-        <v>1.075071205060169</v>
+        <v>1.075071212008879</v>
       </c>
       <c r="I51" t="n">
-        <v>36.00472001607368</v>
+        <v>36.00472230807955</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4155966506278562</v>
+        <v>0.4155966509094953</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5376054609002016</v>
+        <v>0.53760546112546</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6795146853474254</v>
+        <v>0.6795146856978939</v>
       </c>
       <c r="M51" t="n">
-        <v>0.8961559182399259</v>
+        <v>0.896155917942037</v>
       </c>
       <c r="N51" t="n">
         <v>45</v>
@@ -3029,31 +3029,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8096057376881368</v>
+        <v>0.8096057382895744</v>
       </c>
       <c r="F52" t="n">
-        <v>1.385097551397828</v>
+        <v>1.385097551682492</v>
       </c>
       <c r="G52" t="n">
-        <v>1.494798007966551</v>
+        <v>1.494798008010548</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9361795798358798</v>
+        <v>0.9361795855602963</v>
       </c>
       <c r="I52" t="n">
-        <v>35.90009629820131</v>
+        <v>35.90009859079494</v>
       </c>
       <c r="J52" t="n">
-        <v>0.479147468747317</v>
+        <v>0.4791474689494968</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7765487645321971</v>
+        <v>0.7765487646853325</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9124748108870968</v>
+        <v>0.9124748111235865</v>
       </c>
       <c r="M52" t="n">
-        <v>1.04205803407718</v>
+        <v>1.042058034248445</v>
       </c>
       <c r="N52" t="n">
         <v>46</v>
@@ -3079,31 +3079,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9405776066003693</v>
+        <v>0.9405776065989311</v>
       </c>
       <c r="F53" t="n">
-        <v>1.4666841883929</v>
+        <v>1.466684188391825</v>
       </c>
       <c r="G53" t="n">
-        <v>1.457330307895347</v>
+        <v>1.45733030786738</v>
       </c>
       <c r="H53" t="n">
-        <v>1.206198446339215</v>
+        <v>1.206198446402595</v>
       </c>
       <c r="I53" t="n">
-        <v>40.6486419148555</v>
+        <v>40.64864193123277</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4599121536473746</v>
+        <v>0.4599121536556428</v>
       </c>
       <c r="K53" t="n">
-        <v>0.6602839714150099</v>
+        <v>0.6602839714113103</v>
       </c>
       <c r="L53" t="n">
-        <v>0.8046701883257164</v>
+        <v>0.8046701883274063</v>
       </c>
       <c r="M53" t="n">
-        <v>1.22624157346808</v>
+        <v>1.226241573465719</v>
       </c>
       <c r="N53" t="n">
         <v>44</v>
@@ -3129,31 +3129,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5912026629408219</v>
+        <v>0.5912026629458945</v>
       </c>
       <c r="F54" t="n">
-        <v>1.19056302268695</v>
+        <v>1.19056302268977</v>
       </c>
       <c r="G54" t="n">
-        <v>1.612483080181676</v>
+        <v>1.612483080167124</v>
       </c>
       <c r="H54" t="n">
-        <v>1.057389538541202</v>
+        <v>1.057389538588552</v>
       </c>
       <c r="I54" t="n">
-        <v>40.37407809755817</v>
+        <v>40.37407811393436</v>
       </c>
       <c r="J54" t="n">
-        <v>0.3958630090918008</v>
+        <v>0.3958630090968514</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5754910002812207</v>
+        <v>0.5754910002772996</v>
       </c>
       <c r="L54" t="n">
-        <v>0.6984965378381592</v>
+        <v>0.6984965378377911</v>
       </c>
       <c r="M54" t="n">
-        <v>0.9641280504256263</v>
+        <v>0.9641280504294725</v>
       </c>
       <c r="N54" t="n">
         <v>43</v>
@@ -3179,31 +3179,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.868819076973518</v>
+        <v>0.8688190769758264</v>
       </c>
       <c r="F55" t="n">
-        <v>1.432141151754546</v>
+        <v>1.432141151755696</v>
       </c>
       <c r="G55" t="n">
-        <v>1.505234939576894</v>
+        <v>1.505234939547393</v>
       </c>
       <c r="H55" t="n">
-        <v>1.195077716755577</v>
+        <v>1.195077716821856</v>
       </c>
       <c r="I55" t="n">
-        <v>40.62977216215186</v>
+        <v>40.62977217852774</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5124944302426389</v>
+        <v>0.5124944302504106</v>
       </c>
       <c r="K55" t="n">
-        <v>0.6533081244127107</v>
+        <v>0.6533081244097554</v>
       </c>
       <c r="L55" t="n">
-        <v>0.8303385131700087</v>
+        <v>0.8303385131724803</v>
       </c>
       <c r="M55" t="n">
-        <v>1.166861702214691</v>
+        <v>1.166861702214429</v>
       </c>
       <c r="N55" t="n">
         <v>46</v>
@@ -3229,31 +3229,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7876609883282923</v>
+        <v>0.7876609843913138</v>
       </c>
       <c r="F56" t="n">
-        <v>1.488236528601029</v>
+        <v>1.488236523558598</v>
       </c>
       <c r="G56" t="n">
-        <v>1.308436789438929</v>
+        <v>1.30843682769148</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9316324816352903</v>
+        <v>0.9316324742819688</v>
       </c>
       <c r="I56" t="n">
-        <v>44.35254045127262</v>
+        <v>44.35252463218166</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4501474794460225</v>
+        <v>0.4501474726792755</v>
       </c>
       <c r="K56" t="n">
-        <v>1.07739639554661</v>
+        <v>1.077396398014558</v>
       </c>
       <c r="L56" t="n">
-        <v>1.167653949759275</v>
+        <v>1.167653949427776</v>
       </c>
       <c r="M56" t="n">
-        <v>0.9227308484461169</v>
+        <v>0.9227308407328297</v>
       </c>
       <c r="N56" t="n">
         <v>41</v>
@@ -3279,31 +3279,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7253571957364323</v>
+        <v>0.7253571933611829</v>
       </c>
       <c r="F57" t="n">
-        <v>1.350297557884197</v>
+        <v>1.350297554097267</v>
       </c>
       <c r="G57" t="n">
-        <v>1.475162412582449</v>
+        <v>1.475162450870187</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8970619823415973</v>
+        <v>0.8970619585461463</v>
       </c>
       <c r="I57" t="n">
-        <v>44.74968200849175</v>
+        <v>44.74966619415661</v>
       </c>
       <c r="J57" t="n">
-        <v>0.4316918813421519</v>
+        <v>0.4316918752552628</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7909578527222805</v>
+        <v>0.790957856332279</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9010950034262577</v>
+        <v>0.9010950036789459</v>
       </c>
       <c r="M57" t="n">
-        <v>1.005649685341916</v>
+        <v>1.005649680030726</v>
       </c>
       <c r="N57" t="n">
         <v>40</v>
@@ -3329,31 +3329,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7998310200776805</v>
+        <v>0.7998310144151256</v>
       </c>
       <c r="F58" t="n">
-        <v>1.505026708432562</v>
+        <v>1.505026703311162</v>
       </c>
       <c r="G58" t="n">
-        <v>1.326956296774483</v>
+        <v>1.326956337737954</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8623876574689007</v>
+        <v>0.8623876388869576</v>
       </c>
       <c r="I58" t="n">
-        <v>44.53231157311757</v>
+        <v>44.53229575282717</v>
       </c>
       <c r="J58" t="n">
-        <v>0.4614791856868881</v>
+        <v>0.4614791773507195</v>
       </c>
       <c r="K58" t="n">
-        <v>1.087994123858848</v>
+        <v>1.087994127419137</v>
       </c>
       <c r="L58" t="n">
-        <v>1.181818197682544</v>
+        <v>1.181818197705055</v>
       </c>
       <c r="M58" t="n">
-        <v>0.9318857981114387</v>
+        <v>0.9318857898115447</v>
       </c>
       <c r="N58" t="n">
         <v>42</v>
@@ -3379,31 +3379,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6956973616037158</v>
+        <v>0.6956973619394899</v>
       </c>
       <c r="F59" t="n">
-        <v>1.38363030874115</v>
+        <v>1.383630309072327</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8799993624481885</v>
+        <v>0.879999363908837</v>
       </c>
       <c r="H59" t="n">
-        <v>1.231179151086621</v>
+        <v>1.231179150887613</v>
       </c>
       <c r="I59" t="n">
-        <v>49.6067969878673</v>
+        <v>49.60679616437648</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6395836145474681</v>
+        <v>0.6395836143807037</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9644879370658256</v>
+        <v>0.9644879371036521</v>
       </c>
       <c r="L59" t="n">
-        <v>1.157283103109648</v>
+        <v>1.157283103049009</v>
       </c>
       <c r="M59" t="n">
-        <v>1.135710638432508</v>
+        <v>1.135710638521017</v>
       </c>
       <c r="N59" t="n">
         <v>44</v>
@@ -3429,31 +3429,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5628245738120694</v>
+        <v>0.5628245740647444</v>
       </c>
       <c r="F60" t="n">
-        <v>1.213615882134571</v>
+        <v>1.213615882299441</v>
       </c>
       <c r="G60" t="n">
-        <v>1.100046218913235</v>
+        <v>1.100046221402579</v>
       </c>
       <c r="H60" t="n">
-        <v>1.027218159419363</v>
+        <v>1.027218160802761</v>
       </c>
       <c r="I60" t="n">
-        <v>48.78567795720428</v>
+        <v>48.78567713381602</v>
       </c>
       <c r="J60" t="n">
-        <v>0.6031858637049785</v>
+        <v>0.6031858635019315</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7528563702766508</v>
+        <v>0.7528563703086606</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9646895357780423</v>
+        <v>0.964689535676065</v>
       </c>
       <c r="M60" t="n">
-        <v>1.208835473172664</v>
+        <v>1.208835473201642</v>
       </c>
       <c r="N60" t="n">
         <v>42</v>
@@ -3479,31 +3479,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7139336180821091</v>
+        <v>0.7139336183470369</v>
       </c>
       <c r="F61" t="n">
-        <v>1.428073452233114</v>
+        <v>1.428073452512089</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9110768617300096</v>
+        <v>0.9110768625261016</v>
       </c>
       <c r="H61" t="n">
-        <v>1.269350513837594</v>
+        <v>1.269350513384609</v>
       </c>
       <c r="I61" t="n">
-        <v>49.89416675729126</v>
+        <v>49.89416593390747</v>
       </c>
       <c r="J61" t="n">
-        <v>0.6942861341494003</v>
+        <v>0.6942861341008775</v>
       </c>
       <c r="K61" t="n">
-        <v>0.9413421544133879</v>
+        <v>0.941342154446259</v>
       </c>
       <c r="L61" t="n">
-        <v>1.169682986004224</v>
+        <v>1.169682986001876</v>
       </c>
       <c r="M61" t="n">
-        <v>1.072976643542254</v>
+        <v>1.072976643940808</v>
       </c>
       <c r="N61" t="n">
         <v>40</v>

--- a/publication/analyses/outputs/rigid_transformations/df_icp_gdptlab.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/df_icp_gdptlab.xlsx
@@ -529,31 +529,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6668492326943835</v>
+        <v>0.666849232693043</v>
       </c>
       <c r="F2" t="n">
-        <v>1.494395191150699</v>
+        <v>1.494395191151775</v>
       </c>
       <c r="G2" t="n">
-        <v>1.305547152535269</v>
+        <v>1.305547152526685</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3903527302792327</v>
+        <v>0.3903527302676366</v>
       </c>
       <c r="I2" t="n">
-        <v>-45.36521344746593</v>
+        <v>-45.36521345119118</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7067738032624405</v>
+        <v>0.7067738032633009</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8374054939477158</v>
+        <v>0.8374054939489931</v>
       </c>
       <c r="L2" t="n">
-        <v>1.095799785668839</v>
+        <v>1.09579978567037</v>
       </c>
       <c r="M2" t="n">
-        <v>1.016090457126086</v>
+        <v>1.016090457125865</v>
       </c>
       <c r="N2" t="n">
         <v>28</v>
@@ -579,31 +579,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6895878832205175</v>
+        <v>0.6895878832202407</v>
       </c>
       <c r="F3" t="n">
-        <v>1.369620314091792</v>
+        <v>1.369620314092107</v>
       </c>
       <c r="G3" t="n">
-        <v>1.116577108430135</v>
+        <v>1.116577108425247</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3910719667233025</v>
+        <v>0.3910719667131843</v>
       </c>
       <c r="I3" t="n">
-        <v>-45.87254555981212</v>
+        <v>-45.87254556353887</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7635672834626485</v>
+        <v>0.7635672834628329</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7426349731318137</v>
+        <v>0.7426349731326529</v>
       </c>
       <c r="L3" t="n">
-        <v>1.065148674924312</v>
+        <v>1.065148674925029</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8609983188600133</v>
+        <v>0.860998318859719</v>
       </c>
       <c r="N3" t="n">
         <v>31</v>
@@ -629,31 +629,31 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8097179546539797</v>
+        <v>0.8097179546525529</v>
       </c>
       <c r="F4" t="n">
-        <v>1.67677475658589</v>
+        <v>1.676774756585232</v>
       </c>
       <c r="G4" t="n">
-        <v>1.099686903236091</v>
+        <v>1.099686903236204</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3837740952688478</v>
+        <v>0.3837740952609465</v>
       </c>
       <c r="I4" t="n">
-        <v>-45.99243391425975</v>
+        <v>-45.99243391798667</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7734164524495148</v>
+        <v>0.7734164524488342</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8937756102319183</v>
+        <v>0.8937756102328065</v>
       </c>
       <c r="L4" t="n">
-        <v>1.181950866307492</v>
+        <v>1.181950866307718</v>
       </c>
       <c r="M4" t="n">
-        <v>1.189355175697605</v>
+        <v>1.189355175696468</v>
       </c>
       <c r="N4" t="n">
         <v>32</v>
@@ -679,31 +679,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.007939198646724</v>
+        <v>1.007939198890614</v>
       </c>
       <c r="F5" t="n">
-        <v>1.678964312563934</v>
+        <v>1.678964312685383</v>
       </c>
       <c r="G5" t="n">
-        <v>1.266791466242807</v>
+        <v>1.266791466875304</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2544180940436718</v>
+        <v>0.2544180946758274</v>
       </c>
       <c r="I5" t="n">
-        <v>-41.87341162473904</v>
+        <v>-41.87341124450924</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9468482291155219</v>
+        <v>0.9468482290206769</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8644362137335395</v>
+        <v>0.8644362136640624</v>
       </c>
       <c r="L5" t="n">
-        <v>1.282096539498168</v>
+        <v>1.28209653938128</v>
       </c>
       <c r="M5" t="n">
-        <v>1.084043184688794</v>
+        <v>1.084043185015105</v>
       </c>
       <c r="N5" t="n">
         <v>33</v>
@@ -729,31 +729,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>1.05027081320261</v>
+        <v>1.050270813330817</v>
       </c>
       <c r="F6" t="n">
-        <v>1.935592166859859</v>
+        <v>1.935592166967402</v>
       </c>
       <c r="G6" t="n">
-        <v>1.206096993537983</v>
+        <v>1.206096994387394</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3023635809664711</v>
+        <v>0.3023635815928856</v>
       </c>
       <c r="I6" t="n">
-        <v>-41.63894059906868</v>
+        <v>-41.63894021882133</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9791891243857933</v>
+        <v>0.979189124283227</v>
       </c>
       <c r="K6" t="n">
-        <v>1.082904286280525</v>
+        <v>1.082904286218168</v>
       </c>
       <c r="L6" t="n">
-        <v>1.459963367540484</v>
+        <v>1.459963367425441</v>
       </c>
       <c r="M6" t="n">
-        <v>1.270835946080044</v>
+        <v>1.270835946375975</v>
       </c>
       <c r="N6" t="n">
         <v>31</v>
@@ -779,31 +779,31 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>1.036219912847822</v>
+        <v>1.036219913101529</v>
       </c>
       <c r="F7" t="n">
-        <v>1.738227412873351</v>
+        <v>1.738227413035618</v>
       </c>
       <c r="G7" t="n">
-        <v>1.163311893155822</v>
+        <v>1.163311893841353</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2277406725257265</v>
+        <v>0.2277406730007101</v>
       </c>
       <c r="I7" t="n">
-        <v>-42.04082720271474</v>
+        <v>-42.04082682238343</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04899106430589</v>
+        <v>1.048991064213491</v>
       </c>
       <c r="K7" t="n">
-        <v>0.844234393118082</v>
+        <v>0.8442343930751087</v>
       </c>
       <c r="L7" t="n">
-        <v>1.346519202802938</v>
+        <v>1.346519202704012</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09923636009146</v>
+        <v>1.099236360469101</v>
       </c>
       <c r="N7" t="n">
         <v>29</v>
@@ -829,31 +829,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>1.303850057647645</v>
+        <v>1.303850057605152</v>
       </c>
       <c r="F8" t="n">
-        <v>2.292039226828102</v>
+        <v>2.292039226818417</v>
       </c>
       <c r="G8" t="n">
-        <v>1.207857412690601</v>
+        <v>1.207857412425255</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6832450546444875</v>
+        <v>0.6832450550033968</v>
       </c>
       <c r="I8" t="n">
-        <v>-37.77043733368164</v>
+        <v>-37.77043687996459</v>
       </c>
       <c r="J8" t="n">
-        <v>1.025002720559748</v>
+        <v>1.025002720596574</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9582151140791578</v>
+        <v>0.9582151140500138</v>
       </c>
       <c r="L8" t="n">
-        <v>1.40314175406643</v>
+        <v>1.403141754073429</v>
       </c>
       <c r="M8" t="n">
-        <v>1.812356762702725</v>
+        <v>1.812356762685018</v>
       </c>
       <c r="N8" t="n">
         <v>21</v>
@@ -879,31 +879,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>1.278103969179239</v>
+        <v>1.27810396906556</v>
       </c>
       <c r="F9" t="n">
-        <v>2.111191097203831</v>
+        <v>2.111191097115718</v>
       </c>
       <c r="G9" t="n">
-        <v>1.28742401257341</v>
+        <v>1.287424012526401</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5030145910669717</v>
+        <v>0.5030145916729793</v>
       </c>
       <c r="I9" t="n">
-        <v>-37.47511624468647</v>
+        <v>-37.47511579090695</v>
       </c>
       <c r="J9" t="n">
-        <v>1.011277939972427</v>
+        <v>1.011277940000363</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8957123146505951</v>
+        <v>0.8957123145898733</v>
       </c>
       <c r="L9" t="n">
-        <v>1.350919547009222</v>
+        <v>1.350919546989873</v>
       </c>
       <c r="M9" t="n">
-        <v>1.622388432657662</v>
+        <v>1.622388432558998</v>
       </c>
       <c r="N9" t="n">
         <v>29</v>
@@ -929,31 +929,31 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>1.177737666533429</v>
+        <v>1.177737666481667</v>
       </c>
       <c r="F10" t="n">
-        <v>2.247480960346032</v>
+        <v>2.247480960227939</v>
       </c>
       <c r="G10" t="n">
-        <v>1.206587873265619</v>
+        <v>1.206587874079844</v>
       </c>
       <c r="H10" t="n">
-        <v>0.659280072504373</v>
+        <v>0.6592800744082865</v>
       </c>
       <c r="I10" t="n">
-        <v>-36.46447321221725</v>
+        <v>-36.46447275848784</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9954348737243117</v>
+        <v>0.9954348737071114</v>
       </c>
       <c r="K10" t="n">
-        <v>0.867244466047363</v>
+        <v>0.8672444659026671</v>
       </c>
       <c r="L10" t="n">
-        <v>1.320228598279977</v>
+        <v>1.320228598171959</v>
       </c>
       <c r="M10" t="n">
-        <v>1.818836747869789</v>
+        <v>1.818836747802273</v>
       </c>
       <c r="N10" t="n">
         <v>27</v>
@@ -979,31 +979,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>1.023613219184077</v>
+        <v>1.023613218195529</v>
       </c>
       <c r="F11" t="n">
-        <v>1.5005238501986</v>
+        <v>1.500523848791948</v>
       </c>
       <c r="G11" t="n">
-        <v>1.593261051680713</v>
+        <v>1.593261057421216</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4901128221484896</v>
+        <v>0.4901128315630672</v>
       </c>
       <c r="I11" t="n">
-        <v>-32.06690138462915</v>
+        <v>-32.06689825233569</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5983408829086487</v>
+        <v>0.5983408826775491</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7551781443602904</v>
+        <v>0.7551781444206916</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9634862956365041</v>
+        <v>0.9634862955403298</v>
       </c>
       <c r="M11" t="n">
-        <v>1.15033298793668</v>
+        <v>1.150332986182409</v>
       </c>
       <c r="N11" t="n">
         <v>36</v>
@@ -1029,31 +1029,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>1.022318663943479</v>
+        <v>1.022318663211875</v>
       </c>
       <c r="F12" t="n">
-        <v>1.512234958014401</v>
+        <v>1.512234956619809</v>
       </c>
       <c r="G12" t="n">
-        <v>1.637831611152762</v>
+        <v>1.637831615160849</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4342889453233738</v>
+        <v>0.4342889545254138</v>
       </c>
       <c r="I12" t="n">
-        <v>-32.40155765216268</v>
+        <v>-32.40155451986691</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6063040555518773</v>
+        <v>0.6063040555394479</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8051626401654259</v>
+        <v>0.8051626399912976</v>
       </c>
       <c r="L12" t="n">
-        <v>1.007914423399533</v>
+        <v>1.007914423252956</v>
       </c>
       <c r="M12" t="n">
-        <v>1.127369985117556</v>
+        <v>1.127369983377914</v>
       </c>
       <c r="N12" t="n">
         <v>37</v>
@@ -1079,31 +1079,31 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>1.060604755402119</v>
+        <v>1.060604756260904</v>
       </c>
       <c r="F13" t="n">
-        <v>1.564918553934842</v>
+        <v>1.564918554487977</v>
       </c>
       <c r="G13" t="n">
-        <v>1.46055966094417</v>
+        <v>1.460559670409566</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5971607930183609</v>
+        <v>0.5971608067499119</v>
       </c>
       <c r="I13" t="n">
-        <v>-31.31713338909457</v>
+        <v>-31.31713025651484</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6111162549014274</v>
+        <v>0.6111162549275045</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8318908923440909</v>
+        <v>0.8318908927516616</v>
       </c>
       <c r="L13" t="n">
-        <v>1.032233274880148</v>
+        <v>1.032233275224053</v>
       </c>
       <c r="M13" t="n">
-        <v>1.176207697084026</v>
+        <v>1.176207697518137</v>
       </c>
       <c r="N13" t="n">
         <v>38</v>
@@ -1129,31 +1129,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>1.009953733919932</v>
+        <v>1.009953740395004</v>
       </c>
       <c r="F14" t="n">
-        <v>1.330415252741077</v>
+        <v>1.330415257472153</v>
       </c>
       <c r="G14" t="n">
-        <v>1.537309750093357</v>
+        <v>1.537309762645975</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6502476472459193</v>
+        <v>0.6502476697169755</v>
       </c>
       <c r="I14" t="n">
-        <v>-28.26891437979892</v>
+        <v>-28.26890481856799</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7451199831564476</v>
+        <v>0.7451199827459407</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7211524936402145</v>
+        <v>0.7211524926447953</v>
       </c>
       <c r="L14" t="n">
-        <v>1.036949713526439</v>
+        <v>1.036949712539192</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8335106696040141</v>
+        <v>0.833510678383693</v>
       </c>
       <c r="N14" t="n">
         <v>64</v>
@@ -1179,31 +1179,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>1.023243944749298</v>
+        <v>1.023243946050202</v>
       </c>
       <c r="F15" t="n">
-        <v>1.324312556484651</v>
+        <v>1.324312555864287</v>
       </c>
       <c r="G15" t="n">
-        <v>1.594684316091332</v>
+        <v>1.594684340000413</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6762711836245785</v>
+        <v>0.6762712108410369</v>
       </c>
       <c r="I15" t="n">
-        <v>-27.7980669508489</v>
+        <v>-27.79805739125946</v>
       </c>
       <c r="J15" t="n">
-        <v>0.704353482864874</v>
+        <v>0.7043534821841861</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6915473560546698</v>
+        <v>0.6915473546312803</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9870924852768773</v>
+        <v>0.9870924837939505</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8828658860623889</v>
+        <v>0.8828658867898935</v>
       </c>
       <c r="N15" t="n">
         <v>64</v>
@@ -1229,31 +1229,31 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9968929823841084</v>
+        <v>0.996892988505235</v>
       </c>
       <c r="F16" t="n">
-        <v>1.316816591871864</v>
+        <v>1.316816596555993</v>
       </c>
       <c r="G16" t="n">
-        <v>1.55216746855001</v>
+        <v>1.552167482306345</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6246942060401466</v>
+        <v>0.6246942298850513</v>
       </c>
       <c r="I16" t="n">
-        <v>-28.19517099585297</v>
+        <v>-28.19516143451468</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7161231297940728</v>
+        <v>0.7161231293186446</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7210034916030736</v>
+        <v>0.7210034906265455</v>
       </c>
       <c r="L16" t="n">
-        <v>1.016207838943334</v>
+        <v>1.016207837915449</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8374530223834551</v>
+        <v>0.8374530309961413</v>
       </c>
       <c r="N16" t="n">
         <v>61</v>
@@ -1279,31 +1279,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6771882811013864</v>
+        <v>0.6771882811218242</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9378209102741479</v>
+        <v>0.9378209102984926</v>
       </c>
       <c r="G17" t="n">
-        <v>1.704342036372793</v>
+        <v>1.704342036094999</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9729574638364511</v>
+        <v>0.9729574634678215</v>
       </c>
       <c r="I17" t="n">
-        <v>-22.16605296803751</v>
+        <v>-22.16605307412704</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4101767869768445</v>
+        <v>0.4101767869642791</v>
       </c>
       <c r="K17" t="n">
-        <v>0.604945596317267</v>
+        <v>0.6049455963321924</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7308927220039213</v>
+        <v>0.7308927220092228</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5876256364975203</v>
+        <v>0.5876256365298005</v>
       </c>
       <c r="N17" t="n">
         <v>70</v>
@@ -1329,31 +1329,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7164955928429255</v>
+        <v>0.7164955928568907</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9795830859650498</v>
+        <v>0.9795830859826614</v>
       </c>
       <c r="G18" t="n">
-        <v>1.773218608983825</v>
+        <v>1.773218608682157</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9044568937247277</v>
+        <v>0.9044568933326218</v>
       </c>
       <c r="I18" t="n">
-        <v>-22.01144317605718</v>
+        <v>-22.01144328214335</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4492291166802159</v>
+        <v>0.4492291166640804</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6046116076334879</v>
+        <v>0.6046116076475774</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7532343561989441</v>
+        <v>0.7532343562006303</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6262755199992834</v>
+        <v>0.6262755200248139</v>
       </c>
       <c r="N18" t="n">
         <v>71</v>
@@ -1379,31 +1379,31 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.66791523891478</v>
+        <v>0.6679152389386622</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9344116201317705</v>
+        <v>0.9344116201588449</v>
       </c>
       <c r="G19" t="n">
-        <v>1.667845755577673</v>
+        <v>1.667845755296014</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9627552136544182</v>
+        <v>0.9627552132762958</v>
       </c>
       <c r="I19" t="n">
-        <v>-22.09837781749347</v>
+        <v>-22.09837792359305</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4078024885394654</v>
+        <v>0.4078024885258356</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5938694535374638</v>
+        <v>0.593869453553616</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7204053008576955</v>
+        <v>0.720405300863295</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5950977048631563</v>
+        <v>0.5950977048988864</v>
       </c>
       <c r="N19" t="n">
         <v>71</v>
@@ -1429,31 +1429,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5931708539786256</v>
+        <v>0.5931708539803288</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7877639538461509</v>
+        <v>0.7877639538477497</v>
       </c>
       <c r="G20" t="n">
-        <v>1.852900163255299</v>
+        <v>1.852900163245749</v>
       </c>
       <c r="H20" t="n">
-        <v>1.058624235181014</v>
+        <v>1.058624235161915</v>
       </c>
       <c r="I20" t="n">
-        <v>-17.38950197449071</v>
+        <v>-17.38950197880241</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3904479359490851</v>
+        <v>0.3904479359485519</v>
       </c>
       <c r="K20" t="n">
-        <v>0.528455036563047</v>
+        <v>0.5284550365629243</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6570497061530065</v>
+        <v>0.6570497061525908</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4345776462538883</v>
+        <v>0.4345776462574208</v>
       </c>
       <c r="N20" t="n">
         <v>72</v>
@@ -1479,31 +1479,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6175430627746152</v>
+        <v>0.6175430627762996</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8173933348475974</v>
+        <v>0.8173933348493655</v>
       </c>
       <c r="G21" t="n">
-        <v>1.835149980961603</v>
+        <v>1.835149980952394</v>
       </c>
       <c r="H21" t="n">
-        <v>1.00720891631596</v>
+        <v>1.007208916297373</v>
       </c>
       <c r="I21" t="n">
-        <v>-17.49233194525467</v>
+        <v>-17.49233194956692</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4043205758117782</v>
+        <v>0.4043205758113203</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5368615814091399</v>
+        <v>0.5368615814092315</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6720829454895358</v>
+        <v>0.6720829454893336</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4652272329038453</v>
+        <v>0.4652272329072821</v>
       </c>
       <c r="N21" t="n">
         <v>71</v>
@@ -1529,31 +1529,31 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6082619716212896</v>
+        <v>0.6082619716229548</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8064998893322166</v>
+        <v>0.8064998893340471</v>
       </c>
       <c r="G22" t="n">
-        <v>1.864182770087666</v>
+        <v>1.864182770077605</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9878606052567989</v>
+        <v>0.9878606052380974</v>
       </c>
       <c r="I22" t="n">
-        <v>-17.35413232789785</v>
+        <v>-17.35413233220997</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3911188661247775</v>
+        <v>0.391118866124228</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5252741199213405</v>
+        <v>0.5252741199214149</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6548945476165384</v>
+        <v>0.65489454761627</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4706965083735085</v>
+        <v>0.4706965083770185</v>
       </c>
       <c r="N22" t="n">
         <v>72</v>
@@ -1579,31 +1579,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6777898628136261</v>
+        <v>0.6777898627629165</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8699024301347121</v>
+        <v>0.869902430091841</v>
       </c>
       <c r="G23" t="n">
-        <v>1.874880200069356</v>
+        <v>1.874880200210157</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9167959256798781</v>
+        <v>0.9167959260198586</v>
       </c>
       <c r="I23" t="n">
-        <v>-12.63917251587541</v>
+        <v>-12.63917244640147</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3974085175433902</v>
+        <v>0.3974085175462338</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5311979614656738</v>
+        <v>0.5311979614785944</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6634039524161146</v>
+        <v>0.6634039524281639</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5626947963798794</v>
+        <v>0.5626947962994058</v>
       </c>
       <c r="N23" t="n">
         <v>69</v>
@@ -1629,31 +1629,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7095001320866702</v>
+        <v>0.7095001320301318</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9064075407060438</v>
+        <v>0.9064075406567522</v>
       </c>
       <c r="G24" t="n">
-        <v>1.898804899978188</v>
+        <v>1.898804900129448</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9235706147385372</v>
+        <v>0.9235706150939222</v>
       </c>
       <c r="I24" t="n">
-        <v>-12.52909185511206</v>
+        <v>-12.52909178564245</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4033334896436931</v>
+        <v>0.4033334896463593</v>
       </c>
       <c r="K24" t="n">
-        <v>0.546291849542087</v>
+        <v>0.5462918495492575</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6790527878922766</v>
+        <v>0.6790527878996289</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6003848275102414</v>
+        <v>0.6003848274275509</v>
       </c>
       <c r="N24" t="n">
         <v>67</v>
@@ -1679,31 +1679,31 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.687919665865655</v>
+        <v>0.687919665815435</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8823043324303089</v>
+        <v>0.8823043323878256</v>
       </c>
       <c r="G25" t="n">
-        <v>1.895182962734339</v>
+        <v>1.8951829628665</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9224053418703875</v>
+        <v>0.9224053422118459</v>
       </c>
       <c r="I25" t="n">
-        <v>-12.63270150375452</v>
+        <v>-12.63270143428411</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3781241892029715</v>
+        <v>0.3781241892038024</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5301727005459447</v>
+        <v>0.5301727005579038</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6511996582190323</v>
+        <v>0.6511996582292513</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5953149923869718</v>
+        <v>0.5953149923127741</v>
       </c>
       <c r="N25" t="n">
         <v>69</v>
@@ -1729,31 +1729,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3980768035148305</v>
+        <v>0.3980768040499845</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7842255688982961</v>
+        <v>0.7842255689589324</v>
       </c>
       <c r="G26" t="n">
-        <v>1.846178633995805</v>
+        <v>1.846178632146064</v>
       </c>
       <c r="H26" t="n">
-        <v>1.155401585769823</v>
+        <v>1.155401577161854</v>
       </c>
       <c r="I26" t="n">
-        <v>-6.388916552310753</v>
+        <v>-6.388917623269027</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2298100914953202</v>
+        <v>0.2298100915671966</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2736308375969421</v>
+        <v>0.2736308374696504</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3573324970347526</v>
+        <v>0.3573324969835036</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6980854027099572</v>
+        <v>0.6980854028043229</v>
       </c>
       <c r="N26" t="n">
         <v>57</v>
@@ -1779,31 +1779,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E27" t="n">
-        <v>0.385726481320691</v>
+        <v>0.3857264818498478</v>
       </c>
       <c r="F27" t="n">
-        <v>0.782469869164146</v>
+        <v>0.782469869256724</v>
       </c>
       <c r="G27" t="n">
-        <v>1.834143489470989</v>
+        <v>1.834143487824122</v>
       </c>
       <c r="H27" t="n">
-        <v>1.170499471456878</v>
+        <v>1.1704994626607</v>
       </c>
       <c r="I27" t="n">
-        <v>-6.426038664159156</v>
+        <v>-6.426039735104152</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2500358695145256</v>
+        <v>0.2500358695834723</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2864985186357805</v>
+        <v>0.2864985184574929</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3802621953657522</v>
+        <v>0.3802621952767611</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6838565338763425</v>
+        <v>0.6838565340317629</v>
       </c>
       <c r="N27" t="n">
         <v>56</v>
@@ -1829,31 +1829,31 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4053313175276285</v>
+        <v>0.4053313180642682</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7986046266406134</v>
+        <v>0.7986046267122964</v>
       </c>
       <c r="G28" t="n">
-        <v>1.847830203649721</v>
+        <v>1.84783020180771</v>
       </c>
       <c r="H28" t="n">
-        <v>1.151813411439718</v>
+        <v>1.151813402888081</v>
       </c>
       <c r="I28" t="n">
-        <v>-6.355612613635961</v>
+        <v>-6.355613684599268</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2309656395954345</v>
+        <v>0.2309656396570773</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2780831816080233</v>
+        <v>0.2780831814929546</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3614905013509608</v>
+        <v>0.3614905013018273</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7121053062046591</v>
+        <v>0.712105306310001</v>
       </c>
       <c r="N28" t="n">
         <v>57</v>
@@ -1879,31 +1879,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E29" t="n">
-        <v>1.34954583716747</v>
+        <v>1.349545837167115</v>
       </c>
       <c r="F29" t="n">
-        <v>2.291481627302676</v>
+        <v>2.291481627302223</v>
       </c>
       <c r="G29" t="n">
-        <v>1.889626210420943</v>
+        <v>1.889626210409745</v>
       </c>
       <c r="H29" t="n">
-        <v>1.115576813409916</v>
+        <v>1.115576813422308</v>
       </c>
       <c r="I29" t="n">
-        <v>-2.381962718686571</v>
+        <v>-2.381962714585076</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2269481411354064</v>
+        <v>0.226948141135249</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2594098635305951</v>
+        <v>0.2594098635305126</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3446722153898952</v>
+        <v>0.3446722153897295</v>
       </c>
       <c r="M29" t="n">
-        <v>2.265411466423691</v>
+        <v>2.265411466423258</v>
       </c>
       <c r="N29" t="n">
         <v>64</v>
@@ -1929,31 +1929,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E30" t="n">
-        <v>1.31915518922591</v>
+        <v>1.319155189225278</v>
       </c>
       <c r="F30" t="n">
-        <v>2.268595023581681</v>
+        <v>2.268595023581042</v>
       </c>
       <c r="G30" t="n">
-        <v>1.907007464790979</v>
+        <v>1.907007464782566</v>
       </c>
       <c r="H30" t="n">
-        <v>1.09142891631808</v>
+        <v>1.091428916333257</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.031318180429431</v>
+        <v>-2.031318176327828</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2683054451203297</v>
+        <v>0.2683054451201837</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3131573641019584</v>
+        <v>0.3131573641015724</v>
       </c>
       <c r="L30" t="n">
-        <v>0.4123776746776003</v>
+        <v>0.4123776746772121</v>
       </c>
       <c r="M30" t="n">
-        <v>2.230799864274484</v>
+        <v>2.230799864273907</v>
       </c>
       <c r="N30" t="n">
         <v>65</v>
@@ -1979,31 +1979,31 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="E31" t="n">
-        <v>1.299750163982161</v>
+        <v>1.299750163981164</v>
       </c>
       <c r="F31" t="n">
-        <v>2.239854470836692</v>
+        <v>2.239854470835809</v>
       </c>
       <c r="G31" t="n">
-        <v>1.936237949959036</v>
+        <v>1.936237949950623</v>
       </c>
       <c r="H31" t="n">
-        <v>1.096210896281889</v>
+        <v>1.096210896298146</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.947818584951188</v>
+        <v>-1.947818580849825</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2399720641687592</v>
+        <v>0.2399720641687276</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3040122638692311</v>
+        <v>0.3040122638682108</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3873113065278498</v>
+        <v>0.3873113065270295</v>
       </c>
       <c r="M31" t="n">
-        <v>2.206113778199758</v>
+        <v>2.206113778199006</v>
       </c>
       <c r="N31" t="n">
         <v>64</v>
@@ -2029,31 +2029,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8166273748376932</v>
+        <v>0.8166273748255908</v>
       </c>
       <c r="F32" t="n">
-        <v>1.217022577987549</v>
+        <v>1.217022577974757</v>
       </c>
       <c r="G32" t="n">
-        <v>1.887208768232711</v>
+        <v>1.887208768332073</v>
       </c>
       <c r="H32" t="n">
-        <v>1.200559401256101</v>
+        <v>1.200559401417934</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.307076890244016</v>
+        <v>-1.307076974132596</v>
       </c>
       <c r="J32" t="n">
-        <v>0.242717320850837</v>
+        <v>0.2427173208506131</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2597322781417116</v>
+        <v>0.2597322781372419</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3554891758544718</v>
+        <v>0.3554891758510533</v>
       </c>
       <c r="M32" t="n">
-        <v>1.163946476940312</v>
+        <v>1.163946476927985</v>
       </c>
       <c r="N32" t="n">
         <v>64</v>
@@ -2079,31 +2079,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8119640033120981</v>
+        <v>0.8119640033010637</v>
       </c>
       <c r="F33" t="n">
-        <v>1.196538716606371</v>
+        <v>1.196538716589293</v>
       </c>
       <c r="G33" t="n">
-        <v>1.85292364448901</v>
+        <v>1.852923644574332</v>
       </c>
       <c r="H33" t="n">
-        <v>1.219020118269839</v>
+        <v>1.219020118409901</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.204770719323314</v>
+        <v>-1.204770803215575</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2407035864676621</v>
+        <v>0.2407035864637257</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2413114374267932</v>
+        <v>0.2413114374158126</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3408363630415341</v>
+        <v>0.3408363630309799</v>
       </c>
       <c r="M33" t="n">
-        <v>1.146967948099096</v>
+        <v>1.146967948084421</v>
       </c>
       <c r="N33" t="n">
         <v>64</v>
@@ -2129,31 +2129,31 @@
         <v>1.900000000000006</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7982421817412753</v>
+        <v>0.7982421817290282</v>
       </c>
       <c r="F34" t="n">
-        <v>1.203485150985717</v>
+        <v>1.203485150973297</v>
       </c>
       <c r="G34" t="n">
-        <v>1.910540752720181</v>
+        <v>1.910540752816701</v>
       </c>
       <c r="H34" t="n">
-        <v>1.186237920561155</v>
+        <v>1.186237920719179</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.267747982143425</v>
+        <v>-1.267748066029815</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2419282744459102</v>
+        <v>0.2419282744457161</v>
       </c>
       <c r="K34" t="n">
-        <v>0.262543184352483</v>
+        <v>0.2625431843490362</v>
       </c>
       <c r="L34" t="n">
-        <v>0.357012904005328</v>
+        <v>0.3570129040026617</v>
       </c>
       <c r="M34" t="n">
-        <v>1.149312096437165</v>
+        <v>1.149312096424987</v>
       </c>
       <c r="N34" t="n">
         <v>64</v>
@@ -2179,31 +2179,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3888575196065704</v>
+        <v>0.3888575193122217</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7866661807144801</v>
+        <v>0.7866661803322139</v>
       </c>
       <c r="G35" t="n">
-        <v>1.762675450728466</v>
+        <v>1.762675456596639</v>
       </c>
       <c r="H35" t="n">
-        <v>1.189190633527289</v>
+        <v>1.189190632922816</v>
       </c>
       <c r="I35" t="n">
-        <v>2.632324409453576</v>
+        <v>2.632323395168116</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2502567714748116</v>
+        <v>0.2502567712206043</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2633783510088815</v>
+        <v>0.2633783509029609</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3633133736172585</v>
+        <v>0.3633133733653706</v>
       </c>
       <c r="M35" t="n">
-        <v>0.6977442743804889</v>
+        <v>0.6977442740806521</v>
       </c>
       <c r="N35" t="n">
         <v>17</v>
@@ -2229,31 +2229,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4004554997360927</v>
+        <v>0.4004554994985753</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8196472176767972</v>
+        <v>0.8196472172510237</v>
       </c>
       <c r="G36" t="n">
-        <v>1.709573941305564</v>
+        <v>1.709573945888394</v>
       </c>
       <c r="H36" t="n">
-        <v>1.074241656440336</v>
+        <v>1.074241654599803</v>
       </c>
       <c r="I36" t="n">
-        <v>3.17912818755774</v>
+        <v>3.179127172952642</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2628826194255127</v>
+        <v>0.262882619293423</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2412635025965573</v>
+        <v>0.2412635024267518</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3568127650199442</v>
+        <v>0.3568127648078108</v>
       </c>
       <c r="M36" t="n">
-        <v>0.7379066419027395</v>
+        <v>0.7379066415323159</v>
       </c>
       <c r="N36" t="n">
         <v>13</v>
@@ -2279,31 +2279,31 @@
         <v>6.900000000000006</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3862077411450258</v>
+        <v>0.3862077409859527</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8478741743586817</v>
+        <v>0.847874173931746</v>
       </c>
       <c r="G37" t="n">
-        <v>1.719163160093217</v>
+        <v>1.719163165964289</v>
       </c>
       <c r="H37" t="n">
-        <v>1.144832614382096</v>
+        <v>1.144832614104928</v>
       </c>
       <c r="I37" t="n">
-        <v>2.667834329759263</v>
+        <v>2.667833315301371</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2699026729353335</v>
+        <v>0.2699026726769496</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2602053114757377</v>
+        <v>0.2602053113247602</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3749056641047495</v>
+        <v>0.3749056638139466</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7604842921235219</v>
+        <v>0.7604842917908597</v>
       </c>
       <c r="N37" t="n">
         <v>13</v>
@@ -2329,31 +2329,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2534436404489257</v>
+        <v>0.2534436402188995</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4976056015523544</v>
+        <v>0.4976056022672667</v>
       </c>
       <c r="G38" t="n">
-        <v>1.873718192145361</v>
+        <v>1.873718196403956</v>
       </c>
       <c r="H38" t="n">
-        <v>1.187040343978879</v>
+        <v>1.187040353092414</v>
       </c>
       <c r="I38" t="n">
-        <v>11.42655792747474</v>
+        <v>11.42655984264585</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1328963439345032</v>
+        <v>0.1328963446261947</v>
       </c>
       <c r="K38" t="n">
-        <v>0.172944837893076</v>
+        <v>0.1729448401138543</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2181085857664024</v>
+        <v>0.2181085879487805</v>
       </c>
       <c r="M38" t="n">
-        <v>0.4472582917188661</v>
+        <v>0.4472582914499577</v>
       </c>
       <c r="N38" t="n">
         <v>9</v>
@@ -2379,31 +2379,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2297118757911471</v>
+        <v>0.2297118753961794</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4964359826513648</v>
+        <v>0.4964359831179617</v>
       </c>
       <c r="G39" t="n">
-        <v>1.858998941669768</v>
+        <v>1.858998944050995</v>
       </c>
       <c r="H39" t="n">
-        <v>1.077396481558083</v>
+        <v>1.077396485851011</v>
       </c>
       <c r="I39" t="n">
-        <v>10.93582044202687</v>
+        <v>10.93582235763602</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1457311346080318</v>
+        <v>0.1457311352256743</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1751691776712206</v>
+        <v>0.1751691790083506</v>
       </c>
       <c r="L39" t="n">
-        <v>0.227863565319592</v>
+        <v>0.227863566742521</v>
       </c>
       <c r="M39" t="n">
-        <v>0.4410520156069369</v>
+        <v>0.4410520153968982</v>
       </c>
       <c r="N39" t="n">
         <v>9</v>
@@ -2429,31 +2429,31 @@
         <v>11.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2519698357497224</v>
+        <v>0.2519698357109697</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5060260963617903</v>
+        <v>0.5060260968071812</v>
       </c>
       <c r="G40" t="n">
-        <v>1.815466188213691</v>
+        <v>1.815466191007147</v>
       </c>
       <c r="H40" t="n">
-        <v>1.144466126229361</v>
+        <v>1.14446613045925</v>
       </c>
       <c r="I40" t="n">
-        <v>10.99828879043387</v>
+        <v>10.99829070600309</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1587065737313323</v>
+        <v>0.1587065744272501</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1427494730058574</v>
+        <v>0.1427494743302828</v>
       </c>
       <c r="L40" t="n">
-        <v>0.213460039794311</v>
+        <v>0.2134600411974202</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4587997619988131</v>
+        <v>0.4587997618372018</v>
       </c>
       <c r="N40" t="n">
         <v>8</v>
@@ -2479,31 +2479,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.217064963330302</v>
+        <v>0.2170649633300016</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6333133097537785</v>
+        <v>0.6333133097538712</v>
       </c>
       <c r="G41" t="n">
-        <v>1.697829059432252</v>
+        <v>1.697829059427022</v>
       </c>
       <c r="H41" t="n">
-        <v>1.185743563641779</v>
+        <v>1.185743563644621</v>
       </c>
       <c r="I41" t="n">
-        <v>14.38857409223964</v>
+        <v>14.38857409483079</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2258127969191715</v>
+        <v>0.2258127969183063</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2257634851870409</v>
+        <v>0.2257634851883924</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3193126532041256</v>
+        <v>0.3193126532044693</v>
       </c>
       <c r="M41" t="n">
-        <v>0.5469233747199121</v>
+        <v>0.5469233747198518</v>
       </c>
       <c r="N41" t="n">
         <v>12</v>
@@ -2529,31 +2529,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1574865226660605</v>
+        <v>0.1574865226662321</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5858938508131257</v>
+        <v>0.5858938508128426</v>
       </c>
       <c r="G42" t="n">
-        <v>1.659093667529476</v>
+        <v>1.659093667521859</v>
       </c>
       <c r="H42" t="n">
-        <v>1.141879590193923</v>
+        <v>1.141879590195344</v>
       </c>
       <c r="I42" t="n">
-        <v>13.84724656226506</v>
+        <v>13.84724656485661</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2280185175551913</v>
+        <v>0.2280185175535285</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2750013244845515</v>
+        <v>0.2750013244855115</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3572368581436198</v>
+        <v>0.3572368581432973</v>
       </c>
       <c r="M42" t="n">
-        <v>0.4643850036385183</v>
+        <v>0.4643850036382689</v>
       </c>
       <c r="N42" t="n">
         <v>11</v>
@@ -2579,31 +2579,31 @@
         <v>16.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2029444664742089</v>
+        <v>0.2029444664745327</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6623332167781357</v>
+        <v>0.6623332167779081</v>
       </c>
       <c r="G43" t="n">
-        <v>1.666226312614867</v>
+        <v>1.666226312607193</v>
       </c>
       <c r="H43" t="n">
-        <v>1.156203098726053</v>
+        <v>1.156203098727303</v>
       </c>
       <c r="I43" t="n">
-        <v>14.02468115857468</v>
+        <v>14.02468116116612</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1695632167739568</v>
+        <v>0.169563216771949</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2273743683535754</v>
+        <v>0.2273743683543736</v>
       </c>
       <c r="L43" t="n">
-        <v>0.283638480934656</v>
+        <v>0.2836384809340957</v>
       </c>
       <c r="M43" t="n">
-        <v>0.5985269435713017</v>
+        <v>0.5985269435713113</v>
       </c>
       <c r="N43" t="n">
         <v>13</v>
@@ -2629,31 +2629,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2387246397241107</v>
+        <v>0.2387246397233822</v>
       </c>
       <c r="F44" t="n">
-        <v>0.557656195690127</v>
+        <v>0.5576561956889386</v>
       </c>
       <c r="G44" t="n">
-        <v>1.9176956540486</v>
+        <v>1.917695654062982</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5981134036148887</v>
+        <v>0.5981134036160256</v>
       </c>
       <c r="I44" t="n">
-        <v>25.48520678209571</v>
+        <v>25.48520677797007</v>
       </c>
       <c r="J44" t="n">
-        <v>0.09823887948310744</v>
+        <v>0.09823887948258771</v>
       </c>
       <c r="K44" t="n">
-        <v>0.3495876377294934</v>
+        <v>0.3495876377292035</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3631286189429085</v>
+        <v>0.3631286189424888</v>
       </c>
       <c r="M44" t="n">
-        <v>0.4232233910078738</v>
+        <v>0.4232233910066791</v>
       </c>
       <c r="N44" t="n">
         <v>7</v>
@@ -2679,31 +2679,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2481144218902426</v>
+        <v>0.2481144218891748</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5315657121444488</v>
+        <v>0.5315657121436901</v>
       </c>
       <c r="G45" t="n">
-        <v>1.467446431410451</v>
+        <v>1.467446431419717</v>
       </c>
       <c r="H45" t="n">
-        <v>1.223945210822308</v>
+        <v>1.22394521081128</v>
       </c>
       <c r="I45" t="n">
-        <v>26.48229291348754</v>
+        <v>26.48229290936232</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2326614565480853</v>
+        <v>0.2326614565488518</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3994289431292353</v>
+        <v>0.3994289431281572</v>
       </c>
       <c r="L45" t="n">
-        <v>0.4622497528094682</v>
+        <v>0.4622497528089224</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2624638496159317</v>
+        <v>0.2624638496154527</v>
       </c>
       <c r="N45" t="n">
         <v>10</v>
@@ -2729,31 +2729,31 @@
         <v>26.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3484561984944139</v>
+        <v>0.3484561984939203</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6277865715511768</v>
+        <v>0.6277865715503345</v>
       </c>
       <c r="G46" t="n">
-        <v>1.789832773526825</v>
+        <v>1.789832773536318</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8203030048012465</v>
+        <v>0.8203030048002233</v>
       </c>
       <c r="I46" t="n">
-        <v>25.89895663732781</v>
+        <v>25.89895663320255</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1690280070980753</v>
+        <v>0.1690280070986088</v>
       </c>
       <c r="K46" t="n">
-        <v>0.3852924534363148</v>
+        <v>0.3852924534361514</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4207383294382885</v>
+        <v>0.4207383294383532</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4659347996892668</v>
+        <v>0.4659347996880179</v>
       </c>
       <c r="N46" t="n">
         <v>9</v>
@@ -2779,31 +2779,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3924972357305452</v>
+        <v>0.3924972356508875</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8070487922188015</v>
+        <v>0.8070487915065467</v>
       </c>
       <c r="G47" t="n">
-        <v>1.422792908903205</v>
+        <v>1.42279290222973</v>
       </c>
       <c r="H47" t="n">
-        <v>1.168252587462291</v>
+        <v>1.168252602579344</v>
       </c>
       <c r="I47" t="n">
-        <v>30.74030915722762</v>
+        <v>30.74031574478219</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2842373702804105</v>
+        <v>0.2842373717680792</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3664260536529656</v>
+        <v>0.3664260539986429</v>
       </c>
       <c r="L47" t="n">
-        <v>0.4637444721607031</v>
+        <v>0.4637444733456579</v>
       </c>
       <c r="M47" t="n">
-        <v>0.6605064856321801</v>
+        <v>0.6605064839299762</v>
       </c>
       <c r="N47" t="n">
         <v>46</v>
@@ -2829,31 +2829,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5662311722395929</v>
+        <v>0.5662311714932736</v>
       </c>
       <c r="F48" t="n">
-        <v>1.039178479722992</v>
+        <v>1.039178477850211</v>
       </c>
       <c r="G48" t="n">
-        <v>1.438534759205766</v>
+        <v>1.438534754006128</v>
       </c>
       <c r="H48" t="n">
-        <v>1.158542872572127</v>
+        <v>1.158542884044209</v>
       </c>
       <c r="I48" t="n">
-        <v>30.59333843048138</v>
+        <v>30.593345017942</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2694413307633192</v>
+        <v>0.2694413311570721</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4936400359248239</v>
+        <v>0.4936400360162488</v>
       </c>
       <c r="L48" t="n">
-        <v>0.562386980460403</v>
+        <v>0.5623869807293003</v>
       </c>
       <c r="M48" t="n">
-        <v>0.8738494131874289</v>
+        <v>0.8738494107872565</v>
       </c>
       <c r="N48" t="n">
         <v>43</v>
@@ -2879,31 +2879,31 @@
         <v>31.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3911261881974746</v>
+        <v>0.3911261890430009</v>
       </c>
       <c r="F49" t="n">
-        <v>0.807194523522116</v>
+        <v>0.8071945238069288</v>
       </c>
       <c r="G49" t="n">
-        <v>1.44890520793183</v>
+        <v>1.44890520280677</v>
       </c>
       <c r="H49" t="n">
-        <v>1.097896792807489</v>
+        <v>1.09789680710594</v>
       </c>
       <c r="I49" t="n">
-        <v>30.77644345988969</v>
+        <v>30.77645004787374</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2718112223624615</v>
+        <v>0.2718112236338242</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3608666248636564</v>
+        <v>0.3608666254407232</v>
       </c>
       <c r="L49" t="n">
-        <v>0.4517809884697035</v>
+        <v>0.4517809896955515</v>
       </c>
       <c r="M49" t="n">
-        <v>0.6689222206366443</v>
+        <v>0.6689222201523813</v>
       </c>
       <c r="N49" t="n">
         <v>44</v>
@@ -2929,31 +2929,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5693194629582312</v>
+        <v>0.5693194654877476</v>
       </c>
       <c r="F50" t="n">
-        <v>1.194550746798121</v>
+        <v>1.194550751251489</v>
       </c>
       <c r="G50" t="n">
-        <v>1.426290226509593</v>
+        <v>1.426290221614977</v>
       </c>
       <c r="H50" t="n">
-        <v>1.13096517432848</v>
+        <v>1.130965122403722</v>
       </c>
       <c r="I50" t="n">
-        <v>35.86299914853024</v>
+        <v>35.86298041192534</v>
       </c>
       <c r="J50" t="n">
-        <v>0.4620314852882063</v>
+        <v>0.4620314831695262</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5070277864655234</v>
+        <v>0.5070277845216696</v>
       </c>
       <c r="L50" t="n">
-        <v>0.6859666680282317</v>
+        <v>0.6859666651644122</v>
       </c>
       <c r="M50" t="n">
-        <v>0.9779576765025201</v>
+        <v>0.9779576839509373</v>
       </c>
       <c r="N50" t="n">
         <v>43</v>
@@ -2979,31 +2979,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5243914728686805</v>
+        <v>0.5243914704537096</v>
       </c>
       <c r="F51" t="n">
-        <v>1.124649117432475</v>
+        <v>1.124649117639515</v>
       </c>
       <c r="G51" t="n">
-        <v>1.501685422939772</v>
+        <v>1.501685421886862</v>
       </c>
       <c r="H51" t="n">
-        <v>1.075071212008879</v>
+        <v>1.075071155254989</v>
       </c>
       <c r="I51" t="n">
-        <v>36.00472230807955</v>
+        <v>36.00470357272077</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4155966509094953</v>
+        <v>0.4155966485976166</v>
       </c>
       <c r="K51" t="n">
-        <v>0.53760546112546</v>
+        <v>0.5376054592842845</v>
       </c>
       <c r="L51" t="n">
-        <v>0.6795146856978939</v>
+        <v>0.6795146828272641</v>
       </c>
       <c r="M51" t="n">
-        <v>0.896155917942037</v>
+        <v>0.8961559203785566</v>
       </c>
       <c r="N51" t="n">
         <v>45</v>
@@ -3029,31 +3029,31 @@
         <v>36.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8096057382895744</v>
+        <v>0.8096057334005844</v>
       </c>
       <c r="F52" t="n">
-        <v>1.385097551682492</v>
+        <v>1.385097549376758</v>
       </c>
       <c r="G52" t="n">
-        <v>1.494798008010548</v>
+        <v>1.494798007602526</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9361795855602963</v>
+        <v>0.9361795388137466</v>
       </c>
       <c r="I52" t="n">
-        <v>35.90009859079494</v>
+        <v>35.90007985064776</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4791474689494968</v>
+        <v>0.4791474672888778</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7765487646853325</v>
+        <v>0.7765487634337653</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9124748111235865</v>
+        <v>0.9124748091864545</v>
       </c>
       <c r="M52" t="n">
-        <v>1.042058034248445</v>
+        <v>1.042058032879946</v>
       </c>
       <c r="N52" t="n">
         <v>46</v>
@@ -3079,31 +3079,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9405776065989311</v>
+        <v>0.9405776065990503</v>
       </c>
       <c r="F53" t="n">
-        <v>1.466684188391825</v>
+        <v>1.466684188391904</v>
       </c>
       <c r="G53" t="n">
-        <v>1.45733030786738</v>
+        <v>1.457330307869768</v>
       </c>
       <c r="H53" t="n">
-        <v>1.206198446402595</v>
+        <v>1.206198446396513</v>
       </c>
       <c r="I53" t="n">
-        <v>40.64864193123277</v>
+        <v>40.64864192968382</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4599121536556428</v>
+        <v>0.4599121536549284</v>
       </c>
       <c r="K53" t="n">
-        <v>0.6602839714113103</v>
+        <v>0.6602839714116959</v>
       </c>
       <c r="L53" t="n">
-        <v>0.8046701883274063</v>
+        <v>0.8046701883273145</v>
       </c>
       <c r="M53" t="n">
-        <v>1.226241573465719</v>
+        <v>1.226241573465938</v>
       </c>
       <c r="N53" t="n">
         <v>44</v>
@@ -3129,31 +3129,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5912026629458945</v>
+        <v>0.5912026629453589</v>
       </c>
       <c r="F54" t="n">
-        <v>1.19056302268977</v>
+        <v>1.190563022689548</v>
       </c>
       <c r="G54" t="n">
-        <v>1.612483080167124</v>
+        <v>1.612483080168545</v>
       </c>
       <c r="H54" t="n">
-        <v>1.057389538588552</v>
+        <v>1.057389538584005</v>
       </c>
       <c r="I54" t="n">
-        <v>40.37407811393436</v>
+        <v>40.3740781123855</v>
       </c>
       <c r="J54" t="n">
-        <v>0.3958630090968514</v>
+        <v>0.3958630090964042</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5754910002772996</v>
+        <v>0.5754910002776732</v>
       </c>
       <c r="L54" t="n">
-        <v>0.6984965378377911</v>
+        <v>0.6984965378378453</v>
       </c>
       <c r="M54" t="n">
-        <v>0.9641280504294725</v>
+        <v>0.9641280504290943</v>
       </c>
       <c r="N54" t="n">
         <v>43</v>
@@ -3179,31 +3179,31 @@
         <v>41.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8688190769758264</v>
+        <v>0.8688190769755656</v>
       </c>
       <c r="F55" t="n">
-        <v>1.432141151755696</v>
+        <v>1.432141151755612</v>
       </c>
       <c r="G55" t="n">
-        <v>1.505234939547393</v>
+        <v>1.505234939550178</v>
       </c>
       <c r="H55" t="n">
-        <v>1.195077716821856</v>
+        <v>1.195077716815888</v>
       </c>
       <c r="I55" t="n">
-        <v>40.62977217852774</v>
+        <v>40.62977217697892</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5124944302504106</v>
+        <v>0.5124944302496707</v>
       </c>
       <c r="K55" t="n">
-        <v>0.6533081244097554</v>
+        <v>0.6533081244100406</v>
       </c>
       <c r="L55" t="n">
-        <v>0.8303385131724803</v>
+        <v>0.8303385131722482</v>
       </c>
       <c r="M55" t="n">
-        <v>1.166861702214429</v>
+        <v>1.166861702214423</v>
       </c>
       <c r="N55" t="n">
         <v>46</v>
@@ -3229,31 +3229,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7876609843913138</v>
+        <v>0.7876609876040295</v>
       </c>
       <c r="F56" t="n">
-        <v>1.488236523558598</v>
+        <v>1.488236527674714</v>
       </c>
       <c r="G56" t="n">
-        <v>1.30843682769148</v>
+        <v>1.308436796442663</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9316324742819688</v>
+        <v>0.9316324802917393</v>
       </c>
       <c r="I56" t="n">
-        <v>44.35252463218166</v>
+        <v>44.3525375534687</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4501474726792755</v>
+        <v>0.4501474782094875</v>
       </c>
       <c r="K56" t="n">
-        <v>1.077396398014558</v>
+        <v>1.077396395999921</v>
       </c>
       <c r="L56" t="n">
-        <v>1.167653949427776</v>
+        <v>1.167653949700843</v>
       </c>
       <c r="M56" t="n">
-        <v>0.9227308407328297</v>
+        <v>0.9227308470259364</v>
       </c>
       <c r="N56" t="n">
         <v>41</v>
@@ -3279,31 +3279,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7253571933611829</v>
+        <v>0.7253571953013331</v>
       </c>
       <c r="F57" t="n">
-        <v>1.350297554097267</v>
+        <v>1.350297557191289</v>
       </c>
       <c r="G57" t="n">
-        <v>1.475162450870187</v>
+        <v>1.475162419593801</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8970619585461463</v>
+        <v>0.8970619779848903</v>
       </c>
       <c r="I57" t="n">
-        <v>44.74966619415661</v>
+        <v>44.74967911155665</v>
       </c>
       <c r="J57" t="n">
-        <v>0.4316918752552628</v>
+        <v>0.4316918802295547</v>
       </c>
       <c r="K57" t="n">
-        <v>0.790957856332279</v>
+        <v>0.7909578533853143</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9010950036789459</v>
+        <v>0.9010950034752343</v>
       </c>
       <c r="M57" t="n">
-        <v>1.005649680030726</v>
+        <v>1.005649684367642</v>
       </c>
       <c r="N57" t="n">
         <v>40</v>
@@ -3329,31 +3329,31 @@
         <v>46.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7998310144151256</v>
+        <v>0.7998310190368222</v>
       </c>
       <c r="F58" t="n">
-        <v>1.505026703311162</v>
+        <v>1.505026707492457</v>
       </c>
       <c r="G58" t="n">
-        <v>1.326956337737954</v>
+        <v>1.326956304276166</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8623876388869576</v>
+        <v>0.8623876540671631</v>
       </c>
       <c r="I58" t="n">
-        <v>44.53229575282717</v>
+        <v>44.53230867509289</v>
       </c>
       <c r="J58" t="n">
-        <v>0.4614791773507195</v>
+        <v>0.4614791841628194</v>
       </c>
       <c r="K58" t="n">
-        <v>1.087994127419137</v>
+        <v>1.087994124512607</v>
       </c>
       <c r="L58" t="n">
-        <v>1.181818197705055</v>
+        <v>1.181818197689279</v>
       </c>
       <c r="M58" t="n">
-        <v>0.9318857898115447</v>
+        <v>0.9318857965845333</v>
       </c>
       <c r="N58" t="n">
         <v>42</v>
@@ -3379,31 +3379,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6956973619394899</v>
+        <v>0.6956973619469204</v>
       </c>
       <c r="F59" t="n">
-        <v>1.383630309072327</v>
+        <v>1.383630309079641</v>
       </c>
       <c r="G59" t="n">
-        <v>0.879999363908837</v>
+        <v>0.8799993639408399</v>
       </c>
       <c r="H59" t="n">
-        <v>1.231179150887613</v>
+        <v>1.231179150883293</v>
       </c>
       <c r="I59" t="n">
-        <v>49.60679616437648</v>
+        <v>49.60679614607097</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6395836143807037</v>
+        <v>0.6395836143769854</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9644879371036521</v>
+        <v>0.9644879371044939</v>
       </c>
       <c r="L59" t="n">
-        <v>1.157283103049009</v>
+        <v>1.157283103047656</v>
       </c>
       <c r="M59" t="n">
-        <v>1.135710638521017</v>
+        <v>1.135710638522978</v>
       </c>
       <c r="N59" t="n">
         <v>44</v>
@@ -3429,31 +3429,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5628245740647444</v>
+        <v>0.5628245740703346</v>
       </c>
       <c r="F60" t="n">
-        <v>1.213615882299441</v>
+        <v>1.213615882303102</v>
       </c>
       <c r="G60" t="n">
-        <v>1.100046221402579</v>
+        <v>1.100046221457774</v>
       </c>
       <c r="H60" t="n">
-        <v>1.027218160802761</v>
+        <v>1.027218160833513</v>
       </c>
       <c r="I60" t="n">
-        <v>48.78567713381602</v>
+        <v>48.7856771155128</v>
       </c>
       <c r="J60" t="n">
-        <v>0.6031858635019315</v>
+        <v>0.6031858634974377</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7528563703086606</v>
+        <v>0.7528563703093786</v>
       </c>
       <c r="L60" t="n">
-        <v>0.964689535676065</v>
+        <v>0.9646895356738155</v>
       </c>
       <c r="M60" t="n">
-        <v>1.208835473201642</v>
+        <v>1.208835473202279</v>
       </c>
       <c r="N60" t="n">
         <v>42</v>
@@ -3479,31 +3479,31 @@
         <v>51.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7139336183470369</v>
+        <v>0.7139336183529413</v>
       </c>
       <c r="F61" t="n">
-        <v>1.428073452512089</v>
+        <v>1.428073452518283</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9110768625261016</v>
+        <v>0.9110768625437231</v>
       </c>
       <c r="H61" t="n">
-        <v>1.269350513384609</v>
+        <v>1.269350513374661</v>
       </c>
       <c r="I61" t="n">
-        <v>49.89416593390747</v>
+        <v>49.89416591560433</v>
       </c>
       <c r="J61" t="n">
-        <v>0.6942861341008775</v>
+        <v>0.6942861340998259</v>
       </c>
       <c r="K61" t="n">
-        <v>0.941342154446259</v>
+        <v>0.941342154447002</v>
       </c>
       <c r="L61" t="n">
-        <v>1.169682986001876</v>
+        <v>1.16968298600185</v>
       </c>
       <c r="M61" t="n">
-        <v>1.072976643940808</v>
+        <v>1.072976643949666</v>
       </c>
       <c r="N61" t="n">
         <v>40</v>
